--- a/Excel/镇魂街/guide.引导.xlsx
+++ b/Excel/镇魂街/guide.引导.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="guide" sheetId="26" r:id="rId2"/>
     <sheet name="guide_weak" sheetId="27" r:id="rId3"/>
+    <sheet name="guide_weak_condition" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="244">
   <si>
     <t>sheet名</t>
   </si>
@@ -699,10 +700,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ui_t_Guide_002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>挑战一下吧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -739,19 +736,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>单人镇魂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackgroudLayer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackgroudLayer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ui_t_Guide_003</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>单人镇魂</t>
+    <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BackgroudLayer</t>
+    <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BackgroudLayer</t>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1 时间 2 等级 3 关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isweak</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 强制引导  1  弱引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide_weak_condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide_weak_condition.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1251,7 +1320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1261,14 +1330,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="1" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
@@ -1333,7 +1401,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>214</v>
@@ -1347,14 +1415,26 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -1382,7 +1462,7 @@
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB53" sqref="AB53"/>
+      <selection pane="bottomLeft" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5817,7 +5897,7 @@
         <v>76</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T50" s="3">
         <v>0</v>
@@ -7063,7 +7143,7 @@
         <v>76</v>
       </c>
       <c r="S64" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T64" s="3">
         <v>0</v>
@@ -8798,8 +8878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8815,7 +8895,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
@@ -8955,7 +9035,7 @@
         <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="U2" t="s">
         <v>41</v>
@@ -9079,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -9088,7 +9168,7 @@
         <v>-1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -9115,7 +9195,7 @@
         <v>128</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>215</v>
@@ -9162,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -9171,7 +9251,7 @@
         <v>-1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
@@ -9195,13 +9275,13 @@
         <v>-1</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -9245,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G6" s="4">
         <v>-1</v>
@@ -9254,7 +9334,7 @@
         <v>-1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
@@ -9278,13 +9358,13 @@
         <v>-1</v>
       </c>
       <c r="Q6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="S6" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T6" s="4">
         <v>1</v>
@@ -9315,4 +9395,126 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1501003</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/guide.引导.xlsx
+++ b/Excel/镇魂街/guide.引导.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="260">
   <si>
     <t>sheet名</t>
   </si>
@@ -716,19 +716,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UIChallengeEntrance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UITestMain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITestMain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/BackgroudLayer/UIChallengeEntrance/BgRoot/EntrancePanel/SoloBoss_UIButton</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -780,10 +768,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>条件1 时间 2 等级 3 关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>param</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -800,27 +784,109 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>0 强制引导  1  弱引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide_weak_condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide_weak_condition.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1 时间 2 等级 3 关卡4教学失败2次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势引导方式
+1-点击
+2-拖拽3背景黑固定时间点背景</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/BackgroudLayer/UIChallengeEntrance/BgRoot/EntrancePanel/SoloBoss_UIButton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalLayer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MidEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideNeedEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandleType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITestMain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideSkillEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideSkillEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideSkillEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideNeedEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/BattleStateControlModule/Image_Start</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nextgroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>bool:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0 强制引导  1  弱引导</t>
+    <t>bool:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>group</t>
+    <t>是否直接下一步</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>执行组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide_weak_condition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide_weak_condition.lua</t>
+    <t>点击开始</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -956,7 +1022,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -988,6 +1054,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1022,7 +1099,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1038,6 +1115,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1401,7 +1484,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>214</v>
@@ -1416,17 +1499,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
@@ -1460,9 +1543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R54" sqref="R54"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1475,6 +1558,9 @@
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="24.25" customWidth="1"/>
     <col min="17" max="17" width="97.125" customWidth="1"/>
     <col min="18" max="18" width="18.75" customWidth="1"/>
     <col min="19" max="19" width="50.5" customWidth="1"/>
@@ -1518,7 +1604,7 @@
         <v>23</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>25</v>
@@ -1530,7 +1616,7 @@
         <v>27</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>29</v>
@@ -1867,8 +1953,8 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>74</v>
+      <c r="K5" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="L5" s="3">
         <v>-1</v>
@@ -8876,26 +8962,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="22.875" customWidth="1"/>
     <col min="9" max="9" width="22.375" customWidth="1"/>
-    <col min="10" max="10" width="6.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
     <col min="17" max="17" width="92.25" customWidth="1"/>
     <col min="18" max="18" width="16.875" customWidth="1"/>
     <col min="19" max="19" width="33.625" customWidth="1"/>
+    <col min="26" max="26" width="10.75" customWidth="1"/>
+    <col min="27" max="27" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
@@ -8904,7 +8994,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>16</v>
@@ -8973,10 +9063,13 @@
         <v>38</v>
       </c>
       <c r="AA1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -9035,7 +9128,7 @@
         <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="U2" t="s">
         <v>41</v>
@@ -9056,10 +9149,13 @@
         <v>41</v>
       </c>
       <c r="AA2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="120" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -9070,7 +9166,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
@@ -9139,10 +9235,13 @@
         <v>68</v>
       </c>
       <c r="AA3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -9159,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -9168,7 +9267,7 @@
         <v>-1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -9195,7 +9294,7 @@
         <v>128</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>215</v>
@@ -9224,8 +9323,11 @@
       <c r="AA4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
@@ -9242,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -9251,7 +9353,7 @@
         <v>-1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
@@ -9278,7 +9380,7 @@
         <v>219</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>216</v>
@@ -9307,8 +9409,11 @@
       <c r="AA5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
@@ -9325,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G6" s="4">
         <v>-1</v>
@@ -9333,8 +9438,8 @@
       <c r="H6" s="4">
         <v>-1</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>220</v>
+      <c r="I6" s="4">
+        <v>-1</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
@@ -9358,13 +9463,13 @@
         <v>-1</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T6" s="4">
         <v>1</v>
@@ -9388,6 +9493,4223 @@
         <v>-1</v>
       </c>
       <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>6</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1</v>
+      </c>
+      <c r="V11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>2</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>3</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>4</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1</v>
+      </c>
+      <c r="V15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>6</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>7</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>1016</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>3</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>1018</v>
+      </c>
+      <c r="B21" s="6">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>2</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>1019</v>
+      </c>
+      <c r="B22" s="6">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>6</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1020</v>
+      </c>
+      <c r="B23" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1021</v>
+      </c>
+      <c r="B24" s="6">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>5</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+      <c r="V24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1022</v>
+      </c>
+      <c r="B25" s="6">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>6</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1023</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>7</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>1</v>
+      </c>
+      <c r="V26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B27" s="6">
+        <v>7</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+      <c r="V27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>1025</v>
+      </c>
+      <c r="B28" s="6">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>5</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1026</v>
+      </c>
+      <c r="B29" s="6">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>6</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>1027</v>
+      </c>
+      <c r="B30" s="6">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>7</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1</v>
+      </c>
+      <c r="V30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>1028</v>
+      </c>
+      <c r="B31" s="6">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>8</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="V31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>1029</v>
+      </c>
+      <c r="B32" s="6">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>1030</v>
+      </c>
+      <c r="B33" s="6">
+        <v>9</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>1031</v>
+      </c>
+      <c r="B34" s="6">
+        <v>9</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>2</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
+      <c r="U34" s="4">
+        <v>1</v>
+      </c>
+      <c r="V34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>1032</v>
+      </c>
+      <c r="B35" s="6">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>3</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
+        <v>1</v>
+      </c>
+      <c r="V35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>1033</v>
+      </c>
+      <c r="B36" s="6">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>4</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T36" s="4">
+        <v>0</v>
+      </c>
+      <c r="U36" s="4">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>1034</v>
+      </c>
+      <c r="B37" s="6">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O37" s="4">
+        <v>1</v>
+      </c>
+      <c r="P37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
+        <v>1</v>
+      </c>
+      <c r="V37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>1035</v>
+      </c>
+      <c r="B38" s="6">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>2</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T38" s="4">
+        <v>0</v>
+      </c>
+      <c r="U38" s="4">
+        <v>1</v>
+      </c>
+      <c r="V38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>1036</v>
+      </c>
+      <c r="B39" s="6">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O39" s="4">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T39" s="4">
+        <v>0</v>
+      </c>
+      <c r="U39" s="4">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>1037</v>
+      </c>
+      <c r="B40" s="6">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6">
+        <v>5</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>5</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T40" s="4">
+        <v>0</v>
+      </c>
+      <c r="U40" s="4">
+        <v>1</v>
+      </c>
+      <c r="V40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>1038</v>
+      </c>
+      <c r="B41" s="6">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6">
+        <v>4</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>7</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>1039</v>
+      </c>
+      <c r="B42" s="6">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6">
+        <v>4</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T42" s="4">
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <v>1</v>
+      </c>
+      <c r="V42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>1040</v>
+      </c>
+      <c r="B43" s="6">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O43" s="4">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>2</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <v>1</v>
+      </c>
+      <c r="V43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>1041</v>
+      </c>
+      <c r="B44" s="6">
+        <v>11</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>5</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O44" s="4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>10</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T44" s="4">
+        <v>0</v>
+      </c>
+      <c r="U44" s="4">
+        <v>1</v>
+      </c>
+      <c r="V44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>1042</v>
+      </c>
+      <c r="B45" s="6">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>1</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T45" s="4">
+        <v>0</v>
+      </c>
+      <c r="U45" s="4">
+        <v>1</v>
+      </c>
+      <c r="V45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>1043</v>
+      </c>
+      <c r="B46" s="6">
+        <v>11</v>
+      </c>
+      <c r="C46" s="6">
+        <v>4</v>
+      </c>
+      <c r="D46" s="6">
+        <v>5</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O46" s="4">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>9</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T46" s="4">
+        <v>0</v>
+      </c>
+      <c r="U46" s="4">
+        <v>1</v>
+      </c>
+      <c r="V46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>1044</v>
+      </c>
+      <c r="B47" s="6">
+        <v>11</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O47" s="4">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T47" s="4">
+        <v>0</v>
+      </c>
+      <c r="U47" s="4">
+        <v>1</v>
+      </c>
+      <c r="V47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>1045</v>
+      </c>
+      <c r="B48" s="6">
+        <v>12</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
+        <v>5</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O48" s="4">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>8</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T48" s="4">
+        <v>0</v>
+      </c>
+      <c r="U48" s="4">
+        <v>1</v>
+      </c>
+      <c r="V48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>1046</v>
+      </c>
+      <c r="B49" s="6">
+        <v>12</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6">
+        <v>5</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O49" s="4">
+        <v>1</v>
+      </c>
+      <c r="P49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>5</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T49" s="4">
+        <v>0</v>
+      </c>
+      <c r="U49" s="4">
+        <v>1</v>
+      </c>
+      <c r="V49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>1047</v>
+      </c>
+      <c r="B50" s="6">
+        <v>12</v>
+      </c>
+      <c r="C50" s="6">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O50" s="4">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>4</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T50" s="4">
+        <v>0</v>
+      </c>
+      <c r="U50" s="4">
+        <v>1</v>
+      </c>
+      <c r="V50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>1048</v>
+      </c>
+      <c r="B51" s="6">
+        <v>12</v>
+      </c>
+      <c r="C51" s="6">
+        <v>4</v>
+      </c>
+      <c r="D51" s="6">
+        <v>5</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O51" s="4">
+        <v>1</v>
+      </c>
+      <c r="P51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>3</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T51" s="4">
+        <v>0</v>
+      </c>
+      <c r="U51" s="4">
+        <v>1</v>
+      </c>
+      <c r="V51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>1049</v>
+      </c>
+      <c r="B52" s="6">
+        <v>12</v>
+      </c>
+      <c r="C52" s="6">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6">
+        <v>4</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O52" s="4">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T52" s="4">
+        <v>0</v>
+      </c>
+      <c r="U52" s="4">
+        <v>1</v>
+      </c>
+      <c r="V52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>1050</v>
+      </c>
+      <c r="B53" s="6">
+        <v>13</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>5</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O53" s="4">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>12</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T53" s="4">
+        <v>0</v>
+      </c>
+      <c r="U53" s="4">
+        <v>1</v>
+      </c>
+      <c r="V53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>1051</v>
+      </c>
+      <c r="B54" s="6">
+        <v>13</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6">
+        <v>5</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>9</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T54" s="4">
+        <v>0</v>
+      </c>
+      <c r="U54" s="4">
+        <v>1</v>
+      </c>
+      <c r="V54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>1052</v>
+      </c>
+      <c r="B55" s="6">
+        <v>13</v>
+      </c>
+      <c r="C55" s="6">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>4</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O55" s="4">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T55" s="4">
+        <v>0</v>
+      </c>
+      <c r="U55" s="4">
+        <v>1</v>
+      </c>
+      <c r="V55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="W55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AA55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9399,10 +13721,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9412,19 +13734,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9438,27 +13760,27 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9511,6 +13833,145 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1400001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1400002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1400003</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1400004</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1400005</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1400006</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1400007</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1400008</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/guide.引导.xlsx
+++ b/Excel/镇魂街/guide.引导.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="268">
   <si>
     <t>sheet名</t>
   </si>
@@ -283,97 +283,31 @@
     <t>点击开战，进行战斗</t>
   </si>
   <si>
-    <t>UIBattleIn</t>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role1/Role1_Btn1/Role1_Btn1_Icon</t>
-  </si>
-  <si>
     <t>点击选择第1个行动技能</t>
   </si>
   <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role1/Role1_Btn2/Role1_Btn2_Icon</t>
-  </si>
-  <si>
     <t>点击选择第2个行动技能</t>
   </si>
   <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role2/Role2_Btn1/Role2_Btn1_Icon</t>
-  </si>
-  <si>
     <t>点击选择第3个行动技能</t>
   </si>
   <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role2/Role2_Btn2/Role2_Btn2_Icon</t>
-  </si>
-  <si>
     <t>点击选择第4个行动技能</t>
   </si>
   <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/SkillCardPanel</t>
-  </si>
-  <si>
     <t>ui_t_Guide_002</t>
   </si>
   <si>
-    <t>每回合角色可任意行动，所有角色最多行动4次</t>
-  </si>
-  <si>
     <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/BattleStateControlModule/Image_Start</t>
   </si>
   <si>
-    <t>点击开战，对敌人执行攻击</t>
-  </si>
-  <si>
-    <t>UI_Guide_MidEvent</t>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/SystemPage/ef_ui_fight_get crystal</t>
-  </si>
-  <si>
-    <t>每回合开始时，会随机获得不同颜色的水晶</t>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role1/Role1_Btn3/Role1_Btn3_Icon</t>
-  </si>
-  <si>
-    <t>水晶数量达到要求，可召唤&lt;color=#ec6b60&gt;&lt;size=48&gt;强大&lt;/size&gt;&lt;/color&gt;的守护灵参战</t>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role2/Role2_Btn3/Role2_Btn3_Icon</t>
-  </si>
-  <si>
-    <t>再召唤一次&lt;color=#ec6b60&gt;&lt;size=48&gt;强大&lt;/size&gt;&lt;/color&gt;的守护灵参战吧</t>
-  </si>
-  <si>
     <t>进行任意次数的行动后，都可开战</t>
   </si>
   <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role3/Role3_Btn1/Role3_Btn1_Icon</t>
-  </si>
-  <si>
-    <t>合理的安排&lt;color=#ec6b60&gt;&lt;size=48&gt;技能释放顺序&lt;/size&gt;&lt;/color&gt;，可以更快速的获得战斗的胜利，让我们先对右方的敌人进行一次攻击</t>
-  </si>
-  <si>
     <t>接下来用左侧的守护灵对敌方对面的敌人进行打击，降低对方的生命</t>
   </si>
   <si>
-    <t>经过两次打击，对面左右两侧的敌人生命剩余的不多了，让我们用一个&lt;color=#ec6b60&gt;&lt;size=48&gt;群攻技能&lt;/size&gt;&lt;/color&gt;进行收割吧</t>
-  </si>
-  <si>
-    <t>我们已选的行动，对中间的敌人并没有进行多少打击，那么让我们选择一个&lt;color=#ec6b60&gt;&lt;size=48&gt;连击技能&lt;/size&gt;&lt;/color&gt;了结了他吧</t>
-  </si>
-  <si>
     <t>本回合的技能策略已经安排好了，那么让我们执行这次的安排吧</t>
-  </si>
-  <si>
-    <t>UIBattleSettlement</t>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIBattleSettlement/Back</t>
-  </si>
-  <si>
-    <t>点击屏幕任意位置返回</t>
   </si>
   <si>
     <t>UITestMain</t>
@@ -804,10 +738,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>条件1 时间 2 等级 3 关卡4教学失败2次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>手势引导方式
 1-点击
 2-拖拽3背景黑固定时间点背景</t>
@@ -887,6 +817,467 @@
   </si>
   <si>
     <t>点击开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1 时间 2 等级 3 关卡4教学失败2次5当前关卡走引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIEmBattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role1/Role1_Btn2/Role1_Btn2_Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role1/Role1_Btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/Role1_Btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_Icon</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role2/Role2_Btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/Role2_Btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_Icon</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role2/Role2_Btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/Role2_Btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_Icon</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role2/Role2_Hero/Role2_Hero_Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role1/Role1_Hero/Role1_Hero_Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGuideNeedEvent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role3/Role3_Btn2/Role3_Btn2_Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role1/Role1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/Role1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_Icon</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/RoleInfoModule/Role2/Role2_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/Role2_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_Icon</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Guide_MidEvent</t>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/SystemPage/ef_ui_fight_get crystal</t>
+  </si>
+  <si>
+    <t>每回合开始时，会随机获得不同颜色的水晶</t>
+  </si>
+  <si>
+    <t>ui_t_Guide_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多行动4次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我们已选的行动，对中间的敌人并没有进行多少打击，那么让我们选择一个&lt;color=#ec6b60&gt;&lt;size=4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能&lt;/size&gt;&lt;/color&gt;了结了他吧</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合理的安排&lt;color=#ec6b60&gt;&lt;size=4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;技能释放顺序&lt;/size&gt;&lt;/color&gt;，可以更快速的获得战斗的胜利，让我们先对右方的敌人进行一次攻击</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>再召唤一次&lt;color=#ec6b60&gt;&lt;size=4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;强大&lt;/size&gt;&lt;/color&gt;的守护灵参战吧</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>水晶数量达到要求，可召唤&lt;color=#ec6b60&gt;&lt;size=4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;强大&lt;/size&gt;&lt;/color&gt;的守护灵参战</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>经过两次打击，对面左右两侧的敌人生命剩余的不多了，让我们用一个&lt;color=#ec6b60&gt;&lt;size=4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;群攻技能&lt;/size&gt;&lt;/color&gt;进行收割吧</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIEMBATTLE_ON_SET_LAYOUT_ALPHA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIEmBattle/ParentLayout/BtnGroup/BtnSave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalLayer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/SkillCardPanel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_Guide_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_t_Guide_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击开战，对敌人执行攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickTag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBattleIn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1403,7 +1794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1462,10 +1853,10 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="b">
@@ -1484,10 +1875,10 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="b">
@@ -1499,17 +1890,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
@@ -1541,11 +1932,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC83"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1553,12 +1944,13 @@
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
     <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
     <col min="12" max="12" width="15.375" customWidth="1"/>
     <col min="13" max="13" width="24.25" customWidth="1"/>
     <col min="17" max="17" width="97.125" customWidth="1"/>
@@ -1568,7 +1960,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
@@ -1604,7 +1996,7 @@
         <v>23</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>25</v>
@@ -1616,7 +2008,7 @@
         <v>27</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>29</v>
@@ -1631,7 +2023,7 @@
         <v>32</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>34</v>
@@ -1855,17 +2247,17 @@
       <c r="G4" s="3">
         <v>-1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>73</v>
+      <c r="H4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>74</v>
+      <c r="K4" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="L4" s="3">
         <v>-1</v>
@@ -1882,8 +2274,8 @@
       <c r="P4" s="3">
         <v>-1</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>75</v>
+      <c r="Q4" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>76</v>
@@ -1947,8 +2339,8 @@
       <c r="H5" s="3">
         <v>-1</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>78</v>
+      <c r="I5" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
@@ -1971,14 +2363,14 @@
       <c r="P5" s="3">
         <v>-1</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>79</v>
+      <c r="Q5" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T5" s="3">
         <v>0</v>
@@ -2060,14 +2452,14 @@
       <c r="P6" s="3">
         <v>-1</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>81</v>
+      <c r="Q6" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T6" s="3">
         <v>0</v>
@@ -2149,14 +2541,14 @@
       <c r="P7" s="3">
         <v>-1</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>83</v>
+      <c r="Q7" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -2238,14 +2630,14 @@
       <c r="P8" s="3">
         <v>-1</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>85</v>
+      <c r="Q8" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -2327,14 +2719,14 @@
       <c r="P9" s="3">
         <v>-1</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>89</v>
+      <c r="Q9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -2398,7 +2790,7 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>-1</v>
       </c>
       <c r="L10" s="3">
@@ -2417,13 +2809,13 @@
         <v>-1</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -2487,14 +2879,14 @@
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="N11" s="3">
         <v>2</v>
@@ -2506,13 +2898,13 @@
         <v>-1</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
@@ -2576,7 +2968,7 @@
       <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <v>-1</v>
       </c>
       <c r="L12" s="3">
@@ -2594,14 +2986,14 @@
       <c r="P12" s="3">
         <v>-1</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>95</v>
+      <c r="Q12" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -2683,14 +3075,14 @@
       <c r="P13" s="3">
         <v>-1</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>97</v>
+      <c r="Q13" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="T13" s="3">
         <v>0</v>
@@ -2734,10 +3126,10 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>71</v>
@@ -2773,13 +3165,13 @@
         <v>-1</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -2861,14 +3253,14 @@
       <c r="P15" s="3">
         <v>-1</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>100</v>
+      <c r="Q15" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -2950,14 +3342,14 @@
       <c r="P16" s="3">
         <v>-1</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>81</v>
+      <c r="Q16" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
@@ -3006,8 +3398,8 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>71</v>
+      <c r="F17" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="G17" s="3">
         <v>-1</v>
@@ -3039,14 +3431,14 @@
       <c r="P17" s="3">
         <v>-1</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>79</v>
+      <c r="Q17" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -3128,14 +3520,14 @@
       <c r="P18" s="3">
         <v>-1</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>83</v>
+      <c r="Q18" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -3218,13 +3610,13 @@
         <v>-1</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="T19" s="3">
         <v>0</v>
@@ -3259,13 +3651,13 @@
     </row>
     <row r="20" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -3273,20 +3665,20 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>71</v>
+      <c r="F20" s="3">
+        <v>-1</v>
       </c>
       <c r="G20" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
         <v>-1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
         <v>-1</v>
@@ -3307,37 +3699,37 @@
         <v>-1</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X20" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Y20" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Z20" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>1</v>
@@ -3348,13 +3740,13 @@
     </row>
     <row r="21" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -3362,17 +3754,17 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1</v>
+      <c r="F21" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="3">
         <v>-1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -3396,37 +3788,37 @@
         <v>-1</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X21" s="3">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="Y21" s="3">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21" s="3">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AB21" s="3">
         <v>1</v>
@@ -3437,13 +3829,13 @@
     </row>
     <row r="22" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -3455,19 +3847,19 @@
         <v>71</v>
       </c>
       <c r="G22" s="3">
-        <v>-1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H22" s="3">
         <v>-1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L22" s="3">
         <v>-1</v>
@@ -3485,19 +3877,19 @@
         <v>-1</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>1</v>
@@ -3506,16 +3898,16 @@
         <v>-1</v>
       </c>
       <c r="X22" s="3">
-        <v>-1</v>
+        <v>300</v>
       </c>
       <c r="Y22" s="3">
-        <v>-1</v>
+        <v>300</v>
       </c>
       <c r="Z22" s="3">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="AA22" s="3">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -3526,13 +3918,13 @@
     </row>
     <row r="23" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -3544,19 +3936,19 @@
         <v>71</v>
       </c>
       <c r="G23" s="3">
-        <v>1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="3">
         <v>-1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-1</v>
       </c>
       <c r="L23" s="3">
         <v>-1</v>
@@ -3574,13 +3966,13 @@
         <v>-1</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
@@ -3595,16 +3987,16 @@
         <v>-1</v>
       </c>
       <c r="X23" s="3">
-        <v>300</v>
+        <v>-1</v>
       </c>
       <c r="Y23" s="3">
-        <v>300</v>
+        <v>-1</v>
       </c>
       <c r="Z23" s="3">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="AA23" s="3">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AB23" s="3">
         <v>1</v>
@@ -3615,13 +4007,13 @@
     </row>
     <row r="24" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -3638,8 +4030,8 @@
       <c r="H24" s="3">
         <v>-1</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>118</v>
+      <c r="I24" s="3">
+        <v>-1</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
@@ -3663,13 +4055,13 @@
         <v>-1</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -3704,85 +4096,85 @@
     </row>
     <row r="25" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="T25" s="3">
-        <v>0</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0</v>
-      </c>
-      <c r="V25" s="3">
-        <v>1</v>
-      </c>
       <c r="W25" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X25" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Y25" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Z25" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="3">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="AB25" s="3">
         <v>1</v>
@@ -3793,13 +4185,13 @@
     </row>
     <row r="26" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -3807,17 +4199,17 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="3">
-        <v>-1</v>
+      <c r="F26" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="3">
         <v>-1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
@@ -3841,37 +4233,37 @@
         <v>-1</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="T26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X26" s="3">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="Y26" s="3">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26" s="3">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AB26" s="3">
         <v>1</v>
@@ -3882,13 +4274,13 @@
     </row>
     <row r="27" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -3906,7 +4298,7 @@
         <v>-1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
@@ -3930,19 +4322,19 @@
         <v>-1</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="3">
         <v>1</v>
@@ -3971,13 +4363,13 @@
     </row>
     <row r="28" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -3989,19 +4381,19 @@
         <v>71</v>
       </c>
       <c r="G28" s="3">
-        <v>-1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H28" s="3">
         <v>-1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L28" s="3">
         <v>-1</v>
@@ -4019,19 +4411,19 @@
         <v>-1</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="T28" s="3">
         <v>0</v>
       </c>
       <c r="U28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="3">
         <v>1</v>
@@ -4040,16 +4432,16 @@
         <v>-1</v>
       </c>
       <c r="X28" s="3">
-        <v>-1</v>
+        <v>300</v>
       </c>
       <c r="Y28" s="3">
-        <v>-1</v>
+        <v>300</v>
       </c>
       <c r="Z28" s="3">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="AA28" s="3">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="AB28" s="3">
         <v>1</v>
@@ -4060,13 +4452,13 @@
     </row>
     <row r="29" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B29" s="3">
         <v>3</v>
       </c>
       <c r="C29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -4078,19 +4470,19 @@
         <v>71</v>
       </c>
       <c r="G29" s="3">
-        <v>1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="H29" s="3">
         <v>-1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-1</v>
       </c>
       <c r="L29" s="3">
         <v>-1</v>
@@ -4108,13 +4500,13 @@
         <v>-1</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -4129,16 +4521,16 @@
         <v>-1</v>
       </c>
       <c r="X29" s="3">
-        <v>300</v>
+        <v>-1</v>
       </c>
       <c r="Y29" s="3">
-        <v>300</v>
+        <v>-1</v>
       </c>
       <c r="Z29" s="3">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="AA29" s="3">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AB29" s="3">
         <v>1</v>
@@ -4149,13 +4541,13 @@
     </row>
     <row r="30" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -4172,8 +4564,8 @@
       <c r="H30" s="3">
         <v>-1</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>118</v>
+      <c r="I30" s="3">
+        <v>-1</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
@@ -4197,13 +4589,13 @@
         <v>-1</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="T30" s="3">
         <v>0</v>
@@ -4238,13 +4630,13 @@
     </row>
     <row r="31" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
       </c>
       <c r="C31" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -4286,13 +4678,13 @@
         <v>-1</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="T31" s="3">
         <v>0</v>
@@ -4327,13 +4719,13 @@
     </row>
     <row r="32" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -4342,16 +4734,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G32" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
         <v>-1</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1</v>
+      <c r="I32" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
@@ -4375,13 +4767,13 @@
         <v>-1</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -4390,22 +4782,22 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X32" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Y32" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Z32" s="3">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>1</v>
@@ -4416,13 +4808,13 @@
     </row>
     <row r="33" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B33" s="3">
         <v>4</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -4431,46 +4823,46 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H33" s="3">
         <v>-1</v>
       </c>
       <c r="I33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="R33" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
@@ -4479,22 +4871,22 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X33" s="3">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="Y33" s="3">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="AA33" s="3">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="AB33" s="3">
         <v>1</v>
@@ -4505,13 +4897,13 @@
     </row>
     <row r="34" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B34" s="3">
         <v>4</v>
       </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -4520,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="G34" s="3">
         <v>-1</v>
@@ -4529,7 +4921,7 @@
         <v>-1</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
@@ -4553,13 +4945,13 @@
         <v>-1</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="T34" s="3">
         <v>0</v>
@@ -4594,13 +4986,13 @@
     </row>
     <row r="35" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B35" s="3">
         <v>4</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -4614,17 +5006,17 @@
       <c r="G35" s="3">
         <v>-1</v>
       </c>
-      <c r="H35" s="3">
-        <v>-1</v>
+      <c r="H35" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
-      <c r="K35" s="3">
-        <v>-1</v>
+      <c r="K35" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L35" s="3">
         <v>-1</v>
@@ -4642,13 +5034,13 @@
         <v>-1</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
@@ -4683,16 +5075,16 @@
     </row>
     <row r="36" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B36" s="3">
         <v>4</v>
       </c>
       <c r="C36" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -4703,11 +5095,11 @@
       <c r="G36" s="3">
         <v>-1</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>73</v>
+      <c r="H36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>-1</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
@@ -4731,13 +5123,13 @@
         <v>-1</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="T36" s="3">
         <v>0</v>
@@ -4772,16 +5164,16 @@
     </row>
     <row r="37" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B37" s="3">
         <v>4</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -4801,8 +5193,8 @@
       <c r="J37" s="3">
         <v>1</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>74</v>
+      <c r="K37" s="3">
+        <v>-1</v>
       </c>
       <c r="L37" s="3">
         <v>-1</v>
@@ -4820,13 +5212,13 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="T37" s="3">
         <v>0</v>
@@ -4861,16 +5253,16 @@
     </row>
     <row r="38" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B38" s="3">
         <v>4</v>
       </c>
       <c r="C38" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -4879,7 +5271,7 @@
         <v>71</v>
       </c>
       <c r="G38" s="3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="3">
         <v>-1</v>
@@ -4909,13 +5301,13 @@
         <v>-1</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="T38" s="3">
         <v>0</v>
@@ -4950,16 +5342,16 @@
     </row>
     <row r="39" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
       </c>
       <c r="C39" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -4968,7 +5360,7 @@
         <v>71</v>
       </c>
       <c r="G39" s="3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="3">
         <v>-1</v>
@@ -4998,19 +5390,19 @@
         <v>-1</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="T39" s="3">
         <v>0</v>
       </c>
       <c r="U39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="3">
         <v>1</v>
@@ -5031,7 +5423,7 @@
         <v>-1</v>
       </c>
       <c r="AB39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="3">
         <v>0</v>
@@ -5039,13 +5431,13 @@
     </row>
     <row r="40" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
       </c>
       <c r="C40" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -5054,16 +5446,16 @@
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G40" s="3">
         <v>-1</v>
       </c>
-      <c r="H40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I40" s="3">
-        <v>-1</v>
+      <c r="H40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -5087,19 +5479,19 @@
         <v>-1</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="T40" s="3">
         <v>0</v>
       </c>
       <c r="U40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="3">
         <v>1</v>
@@ -5120,7 +5512,7 @@
         <v>-1</v>
       </c>
       <c r="AB40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="3">
         <v>0</v>
@@ -5128,13 +5520,13 @@
     </row>
     <row r="41" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B41" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -5142,17 +5534,17 @@
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>127</v>
+      <c r="F41" s="3">
+        <v>-1</v>
       </c>
       <c r="G41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>145</v>
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
@@ -5176,13 +5568,13 @@
         <v>-1</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -5191,22 +5583,22 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X41" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>1</v>
@@ -5217,13 +5609,13 @@
     </row>
     <row r="42" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -5231,17 +5623,17 @@
       <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="3">
-        <v>-1</v>
+      <c r="F42" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="3">
         <v>-1</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J42" s="3">
         <v>1</v>
@@ -5265,13 +5657,13 @@
         <v>-1</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -5280,22 +5672,22 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W42" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X42" s="3">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="Y42" s="3">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="Z42" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42" s="3">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="AB42" s="3">
         <v>1</v>
@@ -5306,13 +5698,13 @@
     </row>
     <row r="43" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B43" s="3">
         <v>5</v>
       </c>
       <c r="C43" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -5330,7 +5722,7 @@
         <v>-1</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J43" s="3">
         <v>1</v>
@@ -5354,19 +5746,19 @@
         <v>-1</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="3">
         <v>1</v>
@@ -5395,13 +5787,13 @@
     </row>
     <row r="44" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B44" s="3">
         <v>5</v>
       </c>
       <c r="C44" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -5419,13 +5811,13 @@
         <v>-1</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="J44" s="3">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L44" s="3">
         <v>-1</v>
@@ -5443,19 +5835,19 @@
         <v>-1</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>1</v>
@@ -5464,16 +5856,16 @@
         <v>-1</v>
       </c>
       <c r="X44" s="3">
-        <v>-1</v>
+        <v>300</v>
       </c>
       <c r="Y44" s="3">
-        <v>-1</v>
+        <v>300</v>
       </c>
       <c r="Z44" s="3">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="AA44" s="3">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="AB44" s="3">
         <v>1</v>
@@ -5484,13 +5876,13 @@
     </row>
     <row r="45" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B45" s="3">
         <v>5</v>
       </c>
       <c r="C45" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -5507,11 +5899,11 @@
       <c r="H45" s="3">
         <v>-1</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>115</v>
+      <c r="I45" s="3">
+        <v>-1</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>74</v>
@@ -5532,13 +5924,13 @@
         <v>-1</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -5553,16 +5945,16 @@
         <v>-1</v>
       </c>
       <c r="X45" s="3">
-        <v>300</v>
+        <v>-1</v>
       </c>
       <c r="Y45" s="3">
-        <v>300</v>
+        <v>-1</v>
       </c>
       <c r="Z45" s="3">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="AA45" s="3">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="AB45" s="3">
         <v>1</v>
@@ -5573,13 +5965,13 @@
     </row>
     <row r="46" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B46" s="3">
         <v>5</v>
       </c>
       <c r="C46" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -5602,8 +5994,8 @@
       <c r="J46" s="3">
         <v>1</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>74</v>
+      <c r="K46" s="3">
+        <v>-1</v>
       </c>
       <c r="L46" s="3">
         <v>-1</v>
@@ -5621,13 +6013,13 @@
         <v>-1</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -5662,13 +6054,13 @@
     </row>
     <row r="47" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B47" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -5677,16 +6069,16 @@
         <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G47" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H47" s="3">
         <v>-1</v>
       </c>
-      <c r="I47" s="3">
-        <v>-1</v>
+      <c r="I47" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="J47" s="3">
         <v>1</v>
@@ -5710,13 +6102,13 @@
         <v>-1</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -5751,13 +6143,13 @@
     </row>
     <row r="48" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B48" s="3">
         <v>6</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -5766,16 +6158,16 @@
         <v>1</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H48" s="3">
         <v>-1</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="J48" s="3">
         <v>1</v>
@@ -5799,13 +6191,13 @@
         <v>-1</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -5840,13 +6232,13 @@
     </row>
     <row r="49" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B49" s="3">
         <v>6</v>
       </c>
       <c r="C49" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -5855,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="G49" s="3">
         <v>-1</v>
@@ -5864,7 +6256,7 @@
         <v>-1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
@@ -5888,13 +6280,13 @@
         <v>-1</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>154</v>
+      <c r="S49" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -5929,13 +6321,13 @@
     </row>
     <row r="50" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B50" s="3">
         <v>6</v>
       </c>
       <c r="C50" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -5953,7 +6345,7 @@
         <v>-1</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
@@ -5977,13 +6369,13 @@
         <v>-1</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>217</v>
+        <v>82</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="T50" s="3">
         <v>0</v>
@@ -6018,13 +6410,13 @@
     </row>
     <row r="51" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B51" s="3">
         <v>6</v>
       </c>
       <c r="C51" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -6042,7 +6434,7 @@
         <v>-1</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -6066,19 +6458,19 @@
         <v>-1</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="T51" s="3">
         <v>0</v>
       </c>
       <c r="U51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="3">
         <v>1</v>
@@ -6107,13 +6499,13 @@
     </row>
     <row r="52" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B52" s="3">
         <v>6</v>
       </c>
       <c r="C52" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -6131,13 +6523,13 @@
         <v>-1</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="J52" s="3">
         <v>1</v>
       </c>
-      <c r="K52" s="3">
-        <v>-1</v>
+      <c r="K52" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L52" s="3">
         <v>-1</v>
@@ -6155,19 +6547,19 @@
         <v>-1</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>1</v>
@@ -6196,13 +6588,13 @@
     </row>
     <row r="53" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B53" s="3">
         <v>6</v>
       </c>
       <c r="C53" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -6211,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G53" s="3">
         <v>-1</v>
@@ -6220,13 +6612,13 @@
         <v>-1</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>74</v>
+      <c r="K53" s="3">
+        <v>-1</v>
       </c>
       <c r="L53" s="3">
         <v>-1</v>
@@ -6244,13 +6636,13 @@
         <v>-1</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="T53" s="3">
         <v>0</v>
@@ -6285,13 +6677,13 @@
     </row>
     <row r="54" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B54" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -6300,16 +6692,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G54" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3">
         <v>-1</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -6333,13 +6725,13 @@
         <v>-1</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -6374,13 +6766,13 @@
     </row>
     <row r="55" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B55" s="3">
         <v>7</v>
       </c>
       <c r="C55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -6389,16 +6781,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H55" s="3">
         <v>-1</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
@@ -6422,13 +6814,13 @@
         <v>-1</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="T55" s="3">
         <v>0</v>
@@ -6463,13 +6855,13 @@
     </row>
     <row r="56" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B56" s="3">
         <v>7</v>
       </c>
       <c r="C56" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
@@ -6478,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G56" s="3">
         <v>-1</v>
@@ -6487,7 +6879,7 @@
         <v>-1</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="J56" s="3">
         <v>1</v>
@@ -6511,13 +6903,13 @@
         <v>-1</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="T56" s="3">
         <v>0</v>
@@ -6552,13 +6944,13 @@
     </row>
     <row r="57" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B57" s="3">
         <v>7</v>
       </c>
       <c r="C57" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -6567,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="G57" s="3">
         <v>-1</v>
@@ -6576,7 +6968,7 @@
         <v>-1</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J57" s="3">
         <v>1</v>
@@ -6600,19 +6992,19 @@
         <v>-1</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="3">
         <v>1</v>
@@ -6641,13 +7033,13 @@
     </row>
     <row r="58" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B58" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -6656,16 +7048,16 @@
         <v>1</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G58" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H58" s="3">
         <v>-1</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
@@ -6689,19 +7081,19 @@
         <v>-1</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>1</v>
@@ -6730,13 +7122,13 @@
     </row>
     <row r="59" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B59" s="3">
         <v>8</v>
       </c>
       <c r="C59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -6745,16 +7137,16 @@
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G59" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H59" s="3">
         <v>-1</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
@@ -6778,13 +7170,13 @@
         <v>-1</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="T59" s="3">
         <v>1</v>
@@ -6819,13 +7211,13 @@
     </row>
     <row r="60" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B60" s="3">
         <v>8</v>
       </c>
       <c r="C60" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
@@ -6834,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G60" s="3">
         <v>-1</v>
@@ -6843,7 +7235,7 @@
         <v>-1</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="J60" s="3">
         <v>1</v>
@@ -6867,13 +7259,13 @@
         <v>-1</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="T60" s="3">
         <v>1</v>
@@ -6908,13 +7300,13 @@
     </row>
     <row r="61" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B61" s="3">
         <v>8</v>
       </c>
       <c r="C61" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -6923,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="G61" s="3">
         <v>-1</v>
@@ -6932,7 +7324,7 @@
         <v>-1</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
@@ -6956,16 +7348,16 @@
         <v>-1</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="T61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -6977,16 +7369,16 @@
         <v>-1</v>
       </c>
       <c r="X61" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Y61" s="3">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
-        <v>-1</v>
+        <v>-50</v>
       </c>
       <c r="AA61" s="3">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="AB61" s="3">
         <v>1</v>
@@ -6997,13 +7389,13 @@
     </row>
     <row r="62" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B62" s="3">
         <v>8</v>
       </c>
       <c r="C62" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -7021,7 +7413,7 @@
         <v>-1</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="J62" s="3">
         <v>1</v>
@@ -7045,13 +7437,13 @@
         <v>-1</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -7066,16 +7458,16 @@
         <v>-1</v>
       </c>
       <c r="X62" s="3">
-        <v>200</v>
+        <v>-1</v>
       </c>
       <c r="Y62" s="3">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="Z62" s="3">
-        <v>-50</v>
+        <v>-1</v>
       </c>
       <c r="AA62" s="3">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="AB62" s="3">
         <v>1</v>
@@ -7086,13 +7478,13 @@
     </row>
     <row r="63" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B63" s="3">
         <v>8</v>
       </c>
       <c r="C63" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
@@ -7110,7 +7502,7 @@
         <v>-1</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="J63" s="3">
         <v>1</v>
@@ -7134,13 +7526,13 @@
         <v>-1</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S63" s="3" t="s">
-        <v>180</v>
+      <c r="S63" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="T63" s="3">
         <v>0</v>
@@ -7175,13 +7567,13 @@
     </row>
     <row r="64" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B64" s="3">
         <v>8</v>
       </c>
       <c r="C64" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -7198,8 +7590,8 @@
       <c r="H64" s="3">
         <v>-1</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>181</v>
+      <c r="I64" s="3">
+        <v>-1</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -7223,13 +7615,13 @@
         <v>-1</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S64" s="4" t="s">
-        <v>218</v>
+      <c r="S64" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="T64" s="3">
         <v>0</v>
@@ -7264,13 +7656,13 @@
     </row>
     <row r="65" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B65" s="3">
         <v>8</v>
       </c>
       <c r="C65" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
@@ -7287,8 +7679,8 @@
       <c r="H65" s="3">
         <v>-1</v>
       </c>
-      <c r="I65" s="3">
-        <v>-1</v>
+      <c r="I65" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
@@ -7312,19 +7704,19 @@
         <v>-1</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="T65" s="3">
         <v>0</v>
       </c>
       <c r="U65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" s="3">
         <v>1</v>
@@ -7353,13 +7745,13 @@
     </row>
     <row r="66" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B66" s="3">
         <v>8</v>
       </c>
       <c r="C66" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -7377,7 +7769,7 @@
         <v>-1</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="J66" s="3">
         <v>1</v>
@@ -7401,13 +7793,13 @@
         <v>-1</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -7442,13 +7834,13 @@
     </row>
     <row r="67" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B67" s="3">
         <v>8</v>
       </c>
       <c r="C67" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" s="3">
         <v>1</v>
@@ -7466,7 +7858,7 @@
         <v>-1</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
@@ -7490,13 +7882,13 @@
         <v>-1</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="T67" s="3">
         <v>0</v>
@@ -7531,13 +7923,13 @@
     </row>
     <row r="68" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B68" s="3">
         <v>8</v>
       </c>
       <c r="C68" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68" s="3">
         <v>1</v>
@@ -7546,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G68" s="3">
         <v>-1</v>
@@ -7555,7 +7947,7 @@
         <v>-1</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="J68" s="3">
         <v>1</v>
@@ -7579,13 +7971,13 @@
         <v>-1</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="T68" s="3">
         <v>0</v>
@@ -7620,13 +8012,13 @@
     </row>
     <row r="69" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B69" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -7635,16 +8027,16 @@
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G69" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3">
         <v>-1</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="J69" s="3">
         <v>1</v>
@@ -7668,19 +8060,19 @@
         <v>-1</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="T69" s="3">
         <v>0</v>
       </c>
       <c r="U69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" s="3">
         <v>1</v>
@@ -7709,13 +8101,13 @@
     </row>
     <row r="70" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B70" s="3">
         <v>9</v>
       </c>
       <c r="C70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -7724,22 +8116,22 @@
         <v>1</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G70" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H70" s="3">
         <v>-1</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="J70" s="3">
         <v>1</v>
       </c>
-      <c r="K70" s="3">
-        <v>-1</v>
+      <c r="K70" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L70" s="3">
         <v>-1</v>
@@ -7757,13 +8149,13 @@
         <v>-1</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -7798,13 +8190,13 @@
     </row>
     <row r="71" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B71" s="3">
         <v>9</v>
       </c>
       <c r="C71" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -7813,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="G71" s="3">
         <v>-1</v>
@@ -7822,13 +8214,13 @@
         <v>-1</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="J71" s="3">
         <v>1</v>
       </c>
-      <c r="K71" s="3" t="s">
-        <v>74</v>
+      <c r="K71" s="3">
+        <v>-1</v>
       </c>
       <c r="L71" s="3">
         <v>-1</v>
@@ -7846,13 +8238,13 @@
         <v>-1</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="T71" s="3">
         <v>0</v>
@@ -7887,13 +8279,13 @@
     </row>
     <row r="72" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B72" s="3">
         <v>9</v>
       </c>
       <c r="C72" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
@@ -7911,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J72" s="3">
         <v>1</v>
       </c>
-      <c r="K72" s="3">
-        <v>-1</v>
+      <c r="K72" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L72" s="3">
         <v>-1</v>
@@ -7935,13 +8327,13 @@
         <v>-1</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
@@ -7976,13 +8368,13 @@
     </row>
     <row r="73" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B73" s="3">
         <v>9</v>
       </c>
       <c r="C73" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -8000,13 +8392,13 @@
         <v>-1</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J73" s="3">
-        <v>1</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>-1</v>
       </c>
       <c r="L73" s="3">
         <v>-1</v>
@@ -8024,13 +8416,13 @@
         <v>-1</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="R73" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="T73" s="3">
         <v>0</v>
@@ -8065,13 +8457,13 @@
     </row>
     <row r="74" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B74" s="3">
         <v>9</v>
       </c>
       <c r="C74" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" s="3">
         <v>1</v>
@@ -8089,7 +8481,7 @@
         <v>-1</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J74" s="3">
         <v>0</v>
@@ -8113,13 +8505,13 @@
         <v>-1</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="R74" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="T74" s="3">
         <v>0</v>
@@ -8154,13 +8546,13 @@
     </row>
     <row r="75" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B75" s="3">
         <v>9</v>
       </c>
       <c r="C75" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -8178,7 +8570,7 @@
         <v>-1</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J75" s="3">
         <v>0</v>
@@ -8202,13 +8594,13 @@
         <v>-1</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="T75" s="3">
         <v>0</v>
@@ -8243,13 +8635,13 @@
     </row>
     <row r="76" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B76" s="3">
         <v>9</v>
       </c>
       <c r="C76" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="3">
         <v>1</v>
@@ -8267,7 +8659,7 @@
         <v>-1</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -8291,13 +8683,13 @@
         <v>-1</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
@@ -8332,13 +8724,13 @@
     </row>
     <row r="77" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B77" s="3">
         <v>9</v>
       </c>
       <c r="C77" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -8356,7 +8748,7 @@
         <v>-1</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J77" s="3">
         <v>0</v>
@@ -8380,13 +8772,13 @@
         <v>-1</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="T77" s="3">
         <v>0</v>
@@ -8421,13 +8813,13 @@
     </row>
     <row r="78" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B78" s="3">
         <v>9</v>
       </c>
       <c r="C78" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" s="3">
         <v>1</v>
@@ -8445,10 +8837,10 @@
         <v>-1</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="3">
         <v>-1</v>
@@ -8469,19 +8861,19 @@
         <v>-1</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="T78" s="3">
         <v>0</v>
       </c>
       <c r="U78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" s="3">
         <v>1</v>
@@ -8510,16 +8902,16 @@
     </row>
     <row r="79" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B79" s="3">
         <v>9</v>
       </c>
       <c r="C79" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
@@ -8534,13 +8926,13 @@
         <v>-1</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J79" s="3">
         <v>1</v>
       </c>
-      <c r="K79" s="3">
-        <v>-1</v>
+      <c r="K79" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L79" s="3">
         <v>-1</v>
@@ -8549,7 +8941,7 @@
         <v>-1</v>
       </c>
       <c r="N79" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O79" s="3">
         <v>1</v>
@@ -8558,19 +8950,19 @@
         <v>-1</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="T79" s="3">
         <v>0</v>
       </c>
       <c r="U79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V79" s="3">
         <v>1</v>
@@ -8599,16 +8991,16 @@
     </row>
     <row r="80" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B80" s="3">
         <v>9</v>
       </c>
       <c r="C80" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
@@ -8623,13 +9015,13 @@
         <v>-1</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J80" s="3">
         <v>1</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>74</v>
+      <c r="K80" s="3">
+        <v>-1</v>
       </c>
       <c r="L80" s="3">
         <v>-1</v>
@@ -8638,7 +9030,7 @@
         <v>-1</v>
       </c>
       <c r="N80" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O80" s="3">
         <v>1</v>
@@ -8647,13 +9039,13 @@
         <v>-1</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="T80" s="3">
         <v>0</v>
@@ -8688,13 +9080,13 @@
     </row>
     <row r="81" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B81" s="3">
         <v>9</v>
       </c>
       <c r="C81" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
@@ -8703,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G81" s="3">
         <v>-1</v>
@@ -8712,7 +9104,7 @@
         <v>-1</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="J81" s="3">
         <v>1</v>
@@ -8736,13 +9128,13 @@
         <v>-1</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>76</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
@@ -8777,13 +9169,13 @@
     </row>
     <row r="82" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B82" s="3">
         <v>9</v>
       </c>
       <c r="C82" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -8792,16 +9184,16 @@
         <v>1</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G82" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3">
         <v>-1</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="J82" s="3">
         <v>1</v>
@@ -8825,13 +9217,13 @@
         <v>-1</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="T82" s="3">
         <v>0</v>
@@ -8840,116 +9232,27 @@
         <v>0</v>
       </c>
       <c r="V82" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W82" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X82" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Y82" s="3">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="Z82" s="3">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="AA82" s="3">
-        <v>-1</v>
+        <v>-100</v>
       </c>
       <c r="AB82" s="3">
         <v>1</v>
       </c>
       <c r="AC82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>1080</v>
-      </c>
-      <c r="B83" s="3">
-        <v>9</v>
-      </c>
-      <c r="C83" s="3">
-        <v>14</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1</v>
-      </c>
-      <c r="K83" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L83" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M83" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N83" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1</v>
-      </c>
-      <c r="P83" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>2</v>
-      </c>
-      <c r="W83" s="3">
-        <v>1</v>
-      </c>
-      <c r="X83" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC83" s="3">
         <v>0</v>
       </c>
     </row>
@@ -8962,11 +9265,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB55"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8985,7 +9288,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
@@ -8994,7 +9297,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>16</v>
@@ -9063,7 +9366,7 @@
         <v>38</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>39</v>
@@ -9128,7 +9431,7 @@
         <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="U2" t="s">
         <v>41</v>
@@ -9149,13 +9452,13 @@
         <v>41</v>
       </c>
       <c r="AA2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AB2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="120" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -9166,7 +9469,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
@@ -9235,7 +9538,7 @@
         <v>68</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>69</v>
@@ -9258,7 +9561,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -9267,7 +9570,7 @@
         <v>-1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -9291,13 +9594,13 @@
         <v>-1</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="T4" s="3">
         <v>0</v>
@@ -9344,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -9353,7 +9656,7 @@
         <v>-1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
@@ -9377,13 +9680,13 @@
         <v>-1</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -9430,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="G6" s="4">
         <v>-1</v>
@@ -9463,13 +9766,13 @@
         <v>-1</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="T6" s="4">
         <v>1</v>
@@ -9516,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G7" s="4">
         <v>-1</v>
@@ -9531,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="L7" s="4">
         <v>-1</v>
@@ -9552,10 +9855,10 @@
         <v>2</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -9602,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G8" s="4">
         <v>-1</v>
@@ -9617,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L8" s="4">
         <v>-1</v>
@@ -9638,10 +9941,10 @@
         <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -9688,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G9" s="4">
         <v>-1</v>
@@ -9703,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L9" s="4">
         <v>-1</v>
@@ -9724,10 +10027,10 @@
         <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
@@ -9774,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G10" s="4">
         <v>-1</v>
@@ -9789,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="L10" s="4">
         <v>-1</v>
@@ -9807,13 +10110,13 @@
         <v>-1</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -9860,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G11" s="4">
         <v>-1</v>
@@ -9875,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="L11" s="4">
         <v>-1</v>
@@ -9896,10 +10199,10 @@
         <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -9946,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G12" s="4">
         <v>-1</v>
@@ -9961,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="L12" s="4">
         <v>-1</v>
@@ -9982,10 +10285,10 @@
         <v>2</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T12" s="4">
         <v>0</v>
@@ -10032,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G13" s="4">
         <v>-1</v>
@@ -10047,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="L13" s="4">
         <v>-1</v>
@@ -10068,10 +10371,10 @@
         <v>3</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
@@ -10118,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G14" s="4">
         <v>-1</v>
@@ -10133,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="L14" s="4">
         <v>-1</v>
@@ -10154,10 +10457,10 @@
         <v>4</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
@@ -10204,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G15" s="4">
         <v>-1</v>
@@ -10219,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="L15" s="4">
         <v>-1</v>
@@ -10237,13 +10540,13 @@
         <v>-1</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="T15" s="4">
         <v>0</v>
@@ -10290,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G16" s="4">
         <v>-1</v>
@@ -10305,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="L16" s="4">
         <v>-1</v>
@@ -10326,10 +10629,10 @@
         <v>2</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T16" s="4">
         <v>0</v>
@@ -10376,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G17" s="4">
         <v>-1</v>
@@ -10391,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L17" s="4">
         <v>-1</v>
@@ -10412,10 +10715,10 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T17" s="4">
         <v>0</v>
@@ -10462,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G18" s="4">
         <v>-1</v>
@@ -10477,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L18" s="4">
         <v>-1</v>
@@ -10498,10 +10801,10 @@
         <v>7</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T18" s="4">
         <v>0</v>
@@ -10548,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G19" s="4">
         <v>-1</v>
@@ -10563,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="L19" s="4">
         <v>-1</v>
@@ -10581,13 +10884,13 @@
         <v>-1</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="T19" s="4">
         <v>0</v>
@@ -10634,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G20" s="4">
         <v>-1</v>
@@ -10649,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L20" s="4">
         <v>-1</v>
@@ -10670,10 +10973,10 @@
         <v>3</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T20" s="4">
         <v>0</v>
@@ -10720,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G21" s="4">
         <v>-1</v>
@@ -10735,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L21" s="4">
         <v>-1</v>
@@ -10756,10 +11059,10 @@
         <v>2</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T21" s="4">
         <v>0</v>
@@ -10806,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G22" s="4">
         <v>-1</v>
@@ -10821,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L22" s="4">
         <v>-1</v>
@@ -10842,10 +11145,10 @@
         <v>6</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T22" s="4">
         <v>0</v>
@@ -10892,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G23" s="4">
         <v>-1</v>
@@ -10907,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L23" s="4">
         <v>-1</v>
@@ -10925,13 +11228,13 @@
         <v>-1</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="T23" s="4">
         <v>0</v>
@@ -10978,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G24" s="4">
         <v>-1</v>
@@ -10993,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L24" s="4">
         <v>-1</v>
@@ -11014,10 +11317,10 @@
         <v>5</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T24" s="4">
         <v>0</v>
@@ -11064,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G25" s="4">
         <v>-1</v>
@@ -11079,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L25" s="4">
         <v>-1</v>
@@ -11100,10 +11403,10 @@
         <v>6</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T25" s="4">
         <v>0</v>
@@ -11150,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G26" s="4">
         <v>-1</v>
@@ -11165,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L26" s="4">
         <v>-1</v>
@@ -11186,10 +11489,10 @@
         <v>7</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T26" s="4">
         <v>0</v>
@@ -11236,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G27" s="4">
         <v>-1</v>
@@ -11251,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L27" s="4">
         <v>-1</v>
@@ -11269,13 +11572,13 @@
         <v>-1</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="T27" s="4">
         <v>0</v>
@@ -11322,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G28" s="4">
         <v>-1</v>
@@ -11337,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L28" s="4">
         <v>-1</v>
@@ -11358,10 +11661,10 @@
         <v>5</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T28" s="4">
         <v>0</v>
@@ -11408,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G29" s="4">
         <v>-1</v>
@@ -11423,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="L29" s="4">
         <v>-1</v>
@@ -11444,10 +11747,10 @@
         <v>6</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T29" s="4">
         <v>0</v>
@@ -11494,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G30" s="4">
         <v>-1</v>
@@ -11509,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L30" s="4">
         <v>-1</v>
@@ -11530,10 +11833,10 @@
         <v>7</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T30" s="4">
         <v>0</v>
@@ -11580,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G31" s="4">
         <v>-1</v>
@@ -11595,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L31" s="4">
         <v>-1</v>
@@ -11616,10 +11919,10 @@
         <v>8</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T31" s="4">
         <v>0</v>
@@ -11666,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G32" s="4">
         <v>-1</v>
@@ -11681,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L32" s="4">
         <v>-1</v>
@@ -11699,13 +12002,13 @@
         <v>-1</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="T32" s="4">
         <v>0</v>
@@ -11752,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G33" s="4">
         <v>-1</v>
@@ -11767,7 +12070,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L33" s="4">
         <v>-1</v>
@@ -11788,10 +12091,10 @@
         <v>1</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T33" s="4">
         <v>0</v>
@@ -11838,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G34" s="4">
         <v>-1</v>
@@ -11853,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="L34" s="4">
         <v>-1</v>
@@ -11874,10 +12177,10 @@
         <v>2</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T34" s="4">
         <v>0</v>
@@ -11924,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G35" s="4">
         <v>-1</v>
@@ -11939,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L35" s="4">
         <v>-1</v>
@@ -11960,10 +12263,10 @@
         <v>3</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T35" s="4">
         <v>0</v>
@@ -12010,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G36" s="4">
         <v>-1</v>
@@ -12025,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L36" s="4">
         <v>-1</v>
@@ -12046,10 +12349,10 @@
         <v>4</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T36" s="4">
         <v>0</v>
@@ -12096,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G37" s="4">
         <v>-1</v>
@@ -12111,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L37" s="4">
         <v>-1</v>
@@ -12129,13 +12432,13 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="T37" s="4">
         <v>0</v>
@@ -12182,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G38" s="4">
         <v>-1</v>
@@ -12197,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L38" s="4">
         <v>-1</v>
@@ -12218,10 +12521,10 @@
         <v>2</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T38" s="4">
         <v>0</v>
@@ -12268,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G39" s="4">
         <v>-1</v>
@@ -12283,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="L39" s="4">
         <v>-1</v>
@@ -12304,10 +12607,10 @@
         <v>1</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T39" s="4">
         <v>0</v>
@@ -12354,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G40" s="4">
         <v>-1</v>
@@ -12369,7 +12672,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L40" s="4">
         <v>-1</v>
@@ -12390,10 +12693,10 @@
         <v>5</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T40" s="4">
         <v>0</v>
@@ -12440,7 +12743,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G41" s="4">
         <v>-1</v>
@@ -12455,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L41" s="4">
         <v>-1</v>
@@ -12476,10 +12779,10 @@
         <v>7</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T41" s="4">
         <v>0</v>
@@ -12526,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G42" s="4">
         <v>-1</v>
@@ -12541,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L42" s="4">
         <v>-1</v>
@@ -12559,13 +12862,13 @@
         <v>-1</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="T42" s="4">
         <v>0</v>
@@ -12612,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G43" s="4">
         <v>-1</v>
@@ -12627,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L43" s="4">
         <v>-1</v>
@@ -12648,10 +12951,10 @@
         <v>2</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T43" s="4">
         <v>0</v>
@@ -12698,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G44" s="4">
         <v>-1</v>
@@ -12713,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="L44" s="4">
         <v>-1</v>
@@ -12734,10 +13037,10 @@
         <v>10</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T44" s="4">
         <v>0</v>
@@ -12784,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G45" s="4">
         <v>-1</v>
@@ -12799,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L45" s="4">
         <v>-1</v>
@@ -12820,10 +13123,10 @@
         <v>1</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T45" s="4">
         <v>0</v>
@@ -12870,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G46" s="4">
         <v>-1</v>
@@ -12885,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L46" s="4">
         <v>-1</v>
@@ -12906,10 +13209,10 @@
         <v>9</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T46" s="4">
         <v>0</v>
@@ -12956,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G47" s="4">
         <v>-1</v>
@@ -12971,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L47" s="4">
         <v>-1</v>
@@ -12989,13 +13292,13 @@
         <v>-1</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="T47" s="4">
         <v>0</v>
@@ -13042,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G48" s="4">
         <v>-1</v>
@@ -13057,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L48" s="4">
         <v>-1</v>
@@ -13078,10 +13381,10 @@
         <v>8</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T48" s="4">
         <v>0</v>
@@ -13128,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G49" s="4">
         <v>-1</v>
@@ -13143,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="L49" s="4">
         <v>-1</v>
@@ -13164,10 +13467,10 @@
         <v>5</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T49" s="4">
         <v>0</v>
@@ -13214,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G50" s="4">
         <v>-1</v>
@@ -13229,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L50" s="4">
         <v>-1</v>
@@ -13250,10 +13553,10 @@
         <v>4</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T50" s="4">
         <v>0</v>
@@ -13300,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G51" s="4">
         <v>-1</v>
@@ -13315,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L51" s="4">
         <v>-1</v>
@@ -13336,10 +13639,10 @@
         <v>3</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T51" s="4">
         <v>0</v>
@@ -13386,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G52" s="4">
         <v>-1</v>
@@ -13401,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L52" s="4">
         <v>-1</v>
@@ -13419,13 +13722,13 @@
         <v>-1</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="T52" s="4">
         <v>0</v>
@@ -13472,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G53" s="4">
         <v>-1</v>
@@ -13487,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L53" s="4">
         <v>-1</v>
@@ -13508,10 +13811,10 @@
         <v>12</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T53" s="4">
         <v>0</v>
@@ -13558,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G54" s="4">
         <v>-1</v>
@@ -13573,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="L54" s="4">
         <v>-1</v>
@@ -13594,10 +13897,10 @@
         <v>9</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="T54" s="4">
         <v>0</v>
@@ -13644,7 +13947,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G55" s="4">
         <v>-1</v>
@@ -13659,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L55" s="4">
         <v>-1</v>
@@ -13677,13 +13980,13 @@
         <v>-1</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="T55" s="4">
         <v>0</v>
@@ -13712,6 +14015,246 @@
       <c r="AB55" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="56" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+    </row>
+    <row r="57" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+    </row>
+    <row r="58" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+    </row>
+    <row r="59" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+    </row>
+    <row r="60" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+    </row>
+    <row r="61" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+    </row>
+    <row r="62" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+    </row>
+    <row r="63" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -13723,30 +14266,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -13760,7 +14304,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -13771,16 +14315,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13971,7 +14515,21 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C15" s="4"/>
+      <c r="A15" s="7">
+        <v>1012</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10101</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/guide.引导.xlsx
+++ b/Excel/镇魂街/guide.引导.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -17,51 +17,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="155">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
+    <t>屏蔽字段</t>
+  </si>
+  <si>
+    <t>表注释</t>
+  </si>
+  <si>
     <t>是否导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏蔽字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>guide</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>guide.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>guide_weak</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>guide_weak</t>
     </r>
     <r>
@@ -69,268 +69,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.lua</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>HandleType</t>
-  </si>
-  <si>
-    <t>IsHide</t>
-  </si>
-  <si>
-    <t>Layer</t>
-  </si>
-  <si>
-    <t>NeedTime</t>
-  </si>
-  <si>
-    <t>NeedScene</t>
-  </si>
-  <si>
-    <t>NeedUI</t>
-  </si>
-  <si>
-    <t>ShowBeginPos</t>
-  </si>
-  <si>
-    <t>NeedEvent</t>
-  </si>
-  <si>
-    <t>MidEventType</t>
-  </si>
-  <si>
-    <t>MidEvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RearTime</t>
-  </si>
-  <si>
-    <t>ShowFiger</t>
-  </si>
-  <si>
-    <t>Voice</t>
-  </si>
-  <si>
-    <t>TargetPath</t>
-  </si>
-  <si>
-    <t>TalkIcon</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Jump</t>
-  </si>
-  <si>
-    <t>Notice</t>
-  </si>
-  <si>
-    <t>ClickTag</t>
-  </si>
-  <si>
-    <t>ClickEvent</t>
-  </si>
-  <si>
-    <t>BoxSizeX</t>
-  </si>
-  <si>
-    <t>BoxSizeY</t>
-  </si>
-  <si>
-    <t>MoveX</t>
-  </si>
-  <si>
-    <t>MoveY</t>
-  </si>
-  <si>
-    <t>GuideBG</t>
-  </si>
-  <si>
-    <t>GroupJump</t>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-  </si>
-  <si>
-    <t>bool:&lt;</t>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-  </si>
-  <si>
-    <t>组</t>
-  </si>
-  <si>
-    <t>步骤</t>
-  </si>
-  <si>
-    <t>画布蒙黑</t>
-  </si>
-  <si>
-    <t>打开界面的层</t>
-  </si>
-  <si>
-    <t>动效等待时间</t>
-  </si>
-  <si>
-    <t>需要场景</t>
-  </si>
-  <si>
-    <t>需要UI</t>
-  </si>
-  <si>
-    <t>手指从中心开始  true       从上次的位置开始 false</t>
-  </si>
-  <si>
-    <t>需要等待的事件名</t>
-  </si>
-  <si>
-    <t>步骤中等待事件 触发类型</t>
-  </si>
-  <si>
-    <t>步骤中等待事件</t>
-  </si>
-  <si>
-    <t>后置时间（进入这一步之后多长时间进行点击/继续下一步）</t>
-  </si>
-  <si>
-    <t>是否显示手指</t>
-  </si>
-  <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>对话框UI文件名
-带人像的-002
-不带人像的-003</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>可跳过</t>
-  </si>
-  <si>
-    <t>通知服务器</t>
-  </si>
-  <si>
-    <t>点击类型
-1-UI  
-2-3D物品）</t>
-  </si>
-  <si>
-    <t>3D物品点击触发事件的编号</t>
-  </si>
-  <si>
-    <t>3D物件可点击区域的偏移Clolloder</t>
-  </si>
-  <si>
-    <t>3D物件可点击区域的偏移补偿移动</t>
-  </si>
-  <si>
-    <t>执行完后
-背景是否打开
-等待下一步的逻辑</t>
-  </si>
-  <si>
-    <t>跳过组</t>
-  </si>
-  <si>
-    <t>NormalLayer</t>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-  </si>
-  <si>
-    <t>点击选择第1个行动技能</t>
-  </si>
-  <si>
-    <t>点击选择第2个行动技能</t>
-  </si>
-  <si>
-    <t>点击选择第3个行动技能</t>
-  </si>
-  <si>
-    <t>点击选择第4个行动技能</t>
-  </si>
-  <si>
-    <t>Map_zhucheng_001_Root(Clone)/Environment/zhucheng_buildings/Misc_ZCmaoxian_001_cc</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>去冒险吧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战一下吧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_zhucheng_001_Root(Clone)/Environment/zhucheng_buildings/Misc_ZCtiaozhan_001_cc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITestMain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单人镇魂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackgroudLayer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackgroudLayer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide_weak_condition</t>
+  </si>
+  <si>
+    <t>guide_weak_condition.lua</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>I</t>
     </r>
     <r>
@@ -338,376 +95,454 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>param</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isweak</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>HandleType</t>
+  </si>
+  <si>
+    <t>IsHide</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>NeedTime</t>
+  </si>
+  <si>
+    <t>NeedScene</t>
+  </si>
+  <si>
+    <t>Scene_Name</t>
+  </si>
+  <si>
+    <t>NeedUI</t>
+  </si>
+  <si>
+    <t>NeedUIType</t>
+  </si>
+  <si>
+    <t>ShowBeginPos</t>
+  </si>
+  <si>
+    <t>NeedEvent</t>
+  </si>
+  <si>
+    <t>MidEventType</t>
+  </si>
+  <si>
+    <t>MidEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RearTime</t>
+  </si>
+  <si>
+    <t>ShowFiger</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>TargetPath</t>
+  </si>
+  <si>
+    <t>TalkIcon</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>ClickIsSkill</t>
+  </si>
+  <si>
+    <t>ClickTag</t>
+  </si>
+  <si>
+    <t>ClickEvent</t>
+  </si>
+  <si>
+    <t>BoxSizeX</t>
+  </si>
+  <si>
+    <t>BoxSizeY</t>
+  </si>
+  <si>
+    <t>MoveX</t>
+  </si>
+  <si>
+    <t>MoveY</t>
+  </si>
+  <si>
+    <t>BattlePath</t>
+  </si>
+  <si>
+    <t>StoryID</t>
+  </si>
+  <si>
+    <t>OverEvent</t>
+  </si>
+  <si>
+    <t>GuideBG</t>
+  </si>
+  <si>
+    <t>GroupJump</t>
+  </si>
+  <si>
+    <t>BattlePrefabId</t>
+  </si>
+  <si>
+    <t>CamPath</t>
+  </si>
+  <si>
+    <t>BattleConfigId</t>
+  </si>
+  <si>
+    <t>HideUI</t>
+  </si>
+  <si>
+    <t>TalkX</t>
+  </si>
+  <si>
+    <t>TalkY</t>
+  </si>
+  <si>
+    <t>UIName</t>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
   </si>
   <si>
     <t>bool:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 强制引导  1  弱引导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide_weak_condition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide_weak_condition.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>int:ae&lt;&gt;</t>
+  </si>
+  <si>
+    <t>bool:e&lt;</t>
+  </si>
+  <si>
+    <t>组</t>
+  </si>
+  <si>
+    <t>步骤</t>
+  </si>
+  <si>
+    <t>手势引导方式
+1-点击
+2-拖拽3背景黑固定时间点背景10 剧情引导</t>
+  </si>
+  <si>
+    <t>画布蒙黑</t>
+  </si>
+  <si>
+    <t>打开界面的层</t>
+  </si>
+  <si>
+    <t>动效等待时间</t>
+  </si>
+  <si>
+    <t>需要场景</t>
+  </si>
+  <si>
+    <t>战斗的场景</t>
+  </si>
+  <si>
+    <t>需要UI</t>
+  </si>
+  <si>
+    <t>ui打开还是关闭</t>
+  </si>
+  <si>
+    <t>手指从中心开始  true       从上次的位置开始 false</t>
+  </si>
+  <si>
+    <t>需要等待的事件名</t>
+  </si>
+  <si>
+    <t>步骤中等待事件 触发类型</t>
+  </si>
+  <si>
+    <t>步骤中等待事件</t>
+  </si>
+  <si>
+    <t>后置时间（进入这一步之后多长时间进行点击/继续下一步）</t>
+  </si>
+  <si>
+    <t>是否显示手指</t>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>对话框UI文件名
+带人像的-002
+不带人像的-003</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>可跳过</t>
+  </si>
+  <si>
+    <t>通知服务器</t>
+  </si>
+  <si>
+    <t>点击的是否是技能</t>
+  </si>
+  <si>
+    <t>点击类型
+1-UI  
+2-3D物品）</t>
+  </si>
+  <si>
+    <t>3D物品点击触发事件的编号</t>
+  </si>
+  <si>
+    <t>3D物件可点击区域的偏移Clolloder</t>
+  </si>
+  <si>
+    <t>3D物件可点击区域的偏移补偿移动</t>
+  </si>
+  <si>
+    <t>战斗数据位置</t>
+  </si>
+  <si>
+    <t>劇情ID</t>
+  </si>
+  <si>
+    <t>剧情结束后回调</t>
+  </si>
+  <si>
+    <t>执行完后
+背景是否打开
+等待下一步的逻辑</t>
+  </si>
+  <si>
+    <t>跳过组</t>
+  </si>
+  <si>
+    <t>预加载的战斗模型id</t>
+  </si>
+  <si>
+    <t>战斗入场镜头</t>
+  </si>
+  <si>
+    <t>战场配置</t>
+  </si>
+  <si>
+    <t>剧情隐藏UI</t>
+  </si>
+  <si>
+    <t>对话框x</t>
+  </si>
+  <si>
+    <t>对话框y</t>
+  </si>
+  <si>
+    <t>打开ui名字</t>
+  </si>
+  <si>
+    <t>StoryBattleScene</t>
+  </si>
+  <si>
+    <t>Map_luoshajiedao_1-4</t>
+  </si>
+  <si>
+    <t>UIGuide_OverEvent</t>
+  </si>
+  <si>
+    <t>1201004#1101007#1101002#1201002</t>
+  </si>
+  <si>
+    <t>BattleProto/1/</t>
+  </si>
+  <si>
+    <t>Art/Scenes/Common/xinshou_1.prefab</t>
+  </si>
+  <si>
+    <t>NormalLayer</t>
+  </si>
+  <si>
+    <t>UIBattleIn</t>
+  </si>
+  <si>
+    <t>UIGuideNeedEvent</t>
+  </si>
+  <si>
+    <t>ui_t_Guide_003</t>
+  </si>
+  <si>
+    <t>点击选择技能</t>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/SkillCardPanel</t>
+  </si>
+  <si>
+    <t>ui_t_Guide_002</t>
+  </si>
+  <si>
+    <t>每回合角色可任意行动，但最多只可行动&lt;size=35&gt;&lt;color=#ff0000&gt;4&lt;/color&gt;&lt;/size&gt;次</t>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/BattleStateControlModule/Image_Start</t>
+  </si>
+  <si>
+    <t>BattleProto/2/</t>
+  </si>
+  <si>
+    <t>1201004#1101007#1101002</t>
+  </si>
+  <si>
+    <t>Art/Scenes/Common/xinshou_2.prefab</t>
+  </si>
+  <si>
+    <t>UIGuideMidEvent</t>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIBattleIn/SystemPage/ef_ui_fight_get crystal/bg/bg1</t>
+  </si>
+  <si>
+    <t>每回合开始，会随机获得不定量的不同颜色的&lt;color=red&gt;水晶&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>ON_GUIDE_CRY_PLAY_OVER</t>
+  </si>
+  <si>
+    <t>水晶已经足够，让我们召唤更&lt;size=39&gt;&lt;color=red&gt;强大&lt;/color&gt;&lt;/size&gt;的守护灵来对付对面的大块头</t>
+  </si>
+  <si>
+    <t>水晶足够时，守护灵可释放&lt;size=39&gt;&lt;color=red&gt;强大&lt;/color&gt;&lt;/size&gt;的天赋技能，让我们一招解决对面的大块头吧</t>
+  </si>
+  <si>
+    <t>UIGuideCreateName</t>
+  </si>
+  <si>
+    <t>UIRoot/NormalLayer/UIGuideCreateName/InputField/Text</t>
+  </si>
+  <si>
+    <t>HomeScene</t>
+  </si>
+  <si>
+    <t>UITestMain</t>
+  </si>
+  <si>
+    <t>BackgroudLayer</t>
+  </si>
+  <si>
+    <t>UIRoot/BackgroudLayer/UITestMain/parentLayout/ResourceBarParent/CommonBtnGroup(Clone)/BottomBtnGroup/GetNewCard</t>
+  </si>
+  <si>
+    <t>UIGetNewCard</t>
+  </si>
+  <si>
+    <t>UIRoot/BackgroudLayer/UIGetNewCard/concent/onceBtn</t>
+  </si>
+  <si>
+    <t>Nextgroup</t>
+  </si>
+  <si>
+    <t>string:&lt;</t>
   </si>
   <si>
     <t>手势引导方式
 1-点击
 2-拖拽3背景黑固定时间点背景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接下一步</t>
+  </si>
+  <si>
+    <t>Map_zhucheng_001_Root(Clone)/Environment/zhucheng_buildings/Misc_ZCmaoxian_001_cc</t>
+  </si>
+  <si>
+    <t>去冒险吧</t>
+  </si>
+  <si>
+    <t>Map_zhucheng_001_Root(Clone)/Environment/zhucheng_buildings/Misc_ZCtiaozhan_001_cc</t>
+  </si>
+  <si>
+    <t>挑战一下吧</t>
+  </si>
+  <si>
+    <t>UIRoot/BackgroudLayer/UIChallengeEntrance/BgRoot/EntrancePanel/SoloBoss_UIButton</t>
+  </si>
+  <si>
+    <t>单人镇魂</t>
   </si>
   <si>
     <t>点击该技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/BackgroudLayer/UIChallengeEntrance/BgRoot/EntrancePanel/SoloBoss_UIButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalLayer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MidEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuideNeedEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetPath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HandleType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITestMain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UIGuideSkillEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuideSkillEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuideSkillEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>点击开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuideNeedEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/BattleStateControlModule/Image_Start</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nextgroup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否直接下一步</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>isweak</t>
   </si>
   <si>
     <t>条件1 时间 2 等级 3 关卡4教学失败2次5当前关卡走引导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最多行动4次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击开战，对敌人执行攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劇情ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗数据位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleProto/1/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scene_Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗的场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_chilianjie_4-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:ae&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手势引导方式
-1-点击
-2-拖拽3背景黑固定时间点背景10 剧情引导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_t_Guide_003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情结束后回调</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuide_OverEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Continue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClickTag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClickIsSkill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击的是否是技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否继续执行下一组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIBattleIn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattlePath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OverEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Scene</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackgroudLayer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackgroudLayer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UICardList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuideNeedEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuideNeedEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/SkillCardPanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/NormalLayer/UIBattleIn/ReadyPage/BattleStateControlModule/Image_Start</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/BackgroudLayer/UICardList/Right/TempParent/UICardLvAndBT(Clone)/levelUpPanel/propertyPanel/btnparent/level1Btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/BackgroudLayer/UICardList/ButtomLeft/BtnParent/evolve_UIButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoot/BackgroudLayer/UITestMain/ResourceBarParent/CommonBtnGroup(Clone)/BottomBtnGroup/shl_card</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击养成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击升级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuideBG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuide_OverEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITestMain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITestMain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIGuideNeedEvent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>105#108</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>0 强制引导  1  弱引导</t>
+  </si>
+  <si>
+    <t>执行组</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -716,28 +551,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,15 +714,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,12 +729,18 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,13 +749,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +839,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,24 +957,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -855,78 +998,381 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="超链接 2" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
+    <cellStyle name="无效" xfId="59"/>
+    <cellStyle name="中文标题" xfId="60"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1188,24 +1634,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
@@ -1215,7 +1656,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1229,19 +1670,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="47.25" customHeight="1" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1250,10 +1691,10 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="b">
@@ -1263,19 +1704,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="57.75" customHeight="1" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="b">
@@ -1285,19 +1726,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="54" customHeight="1" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
@@ -1307,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="55.5" customHeight="1" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1317,26 +1758,30 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -1345,346 +1790,420 @@
     <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="19.875" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="24.25" customWidth="1"/>
-    <col min="17" max="17" width="103.75" customWidth="1"/>
-    <col min="18" max="18" width="18.75" customWidth="1"/>
-    <col min="19" max="19" width="50.5" customWidth="1"/>
-    <col min="21" max="21" width="5.75" customWidth="1"/>
-    <col min="22" max="22" width="11.375" customWidth="1"/>
-    <col min="28" max="28" width="4.125" customWidth="1"/>
-    <col min="29" max="29" width="27.75" customWidth="1"/>
-    <col min="30" max="30" width="14" customWidth="1"/>
-    <col min="33" max="33" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="27.75" customWidth="1"/>
+    <col min="10" max="10" width="12.4916666666667" customWidth="1"/>
+    <col min="11" max="11" width="18.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="20.7583333333333" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="15" max="15" width="24.25" customWidth="1"/>
+    <col min="17" max="17" width="16.05" customWidth="1"/>
+    <col min="19" max="19" width="23.8416666666667" customWidth="1"/>
+    <col min="20" max="20" width="18.75" customWidth="1"/>
+    <col min="21" max="21" width="25.1833333333333" customWidth="1"/>
+    <col min="23" max="23" width="6.43333333333333" customWidth="1"/>
+    <col min="24" max="24" width="11.375" customWidth="1"/>
+    <col min="30" max="30" width="4.125" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
+    <col min="32" max="32" width="14.4166666666667" customWidth="1"/>
+    <col min="33" max="33" width="27.2" customWidth="1"/>
+    <col min="34" max="34" width="13.1666666666667" customWidth="1"/>
+    <col min="35" max="35" width="14.5166666666667" customWidth="1"/>
+    <col min="36" max="36" width="15.3833333333333" customWidth="1"/>
+    <col min="37" max="37" width="7.20833333333333" customWidth="1"/>
+    <col min="38" max="38" width="11.15" customWidth="1"/>
+    <col min="39" max="39" width="14.5166666666667" customWidth="1"/>
+    <col min="40" max="41" width="11.15" customWidth="1"/>
+    <col min="42" max="42" width="20.2916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" customHeight="1" spans="1:42">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:42">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" ht="85.5" customHeight="1" spans="1:42">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T2" t="s">
-        <v>140</v>
-      </c>
-      <c r="U2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V2" t="s">
-        <v>140</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:42">
       <c r="A4" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -1698,89 +2217,69 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <v>-1</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3"/>
       <c r="P4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
       <c r="V4" s="3">
         <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4"/>
       <c r="AF4" s="4">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="AH4" s="3">
         <v>1</v>
@@ -1788,10 +2287,19 @@
       <c r="AI4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:42">
       <c r="A5" s="3">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1800,85 +2308,69 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M5" s="4"/>
       <c r="N5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>9</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
       <c r="V5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="AF5" s="3">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3">
@@ -1887,10 +2379,23 @@
       <c r="AI5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>58</v>
+      </c>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:42">
       <c r="A6" s="3">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1905,80 +2410,74 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="G6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="K6" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="N6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3"/>
       <c r="P6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>8</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4">
+        <v>5</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="V6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="3">
-        <v>0</v>
-      </c>
+      <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3">
         <v>1</v>
@@ -1986,10 +2485,17 @@
       <c r="AI6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:42">
       <c r="A7" s="3">
-        <v>1004</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -2004,80 +2510,64 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="G7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4">
         <v>6</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
       <c r="V7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="3">
-        <v>0</v>
-      </c>
+      <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3">
         <v>1</v>
@@ -2085,10 +2575,17 @@
       <c r="AI7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:42">
       <c r="A8" s="3">
-        <v>1005</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -2103,80 +2600,64 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="G8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
       <c r="P8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>5</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4">
+        <v>8</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3">
-        <v>0</v>
-      </c>
+      <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3">
         <v>1</v>
@@ -2184,10 +2665,17 @@
       <c r="AI8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:42">
       <c r="A9" s="3">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -2196,86 +2684,70 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="G9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
       <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4">
+        <v>9</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="3">
-        <v>0</v>
-      </c>
+      <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3">
         <v>1</v>
@@ -2283,10 +2755,17 @@
       <c r="AI9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:42">
       <c r="A10" s="3">
-        <v>1007</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -2295,387 +2774,352 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="G10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3"/>
       <c r="S10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <v>-1</v>
+        <v>560</v>
       </c>
       <c r="AB10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>-20</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>-29</v>
+      </c>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="3">
-        <v>1</v>
-      </c>
+      <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3">
+        <v>239</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="3"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:42">
       <c r="A11" s="3">
-        <v>1008</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="4"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:42">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
         <v>11</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>-1</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" s="4">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4">
-        <v>107</v>
-      </c>
-      <c r="AF11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
       <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="N12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3"/>
       <c r="P12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
       <c r="V12" s="3">
         <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="AH12" s="3">
         <v>1</v>
       </c>
       <c r="AI12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="4"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:42">
       <c r="A13" s="3">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M13" s="4"/>
       <c r="N13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
       <c r="V13" s="3">
         <v>0</v>
       </c>
       <c r="W13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="3">
         <v>1</v>
@@ -2683,98 +3127,107 @@
       <c r="AI13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>59</v>
+      </c>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:42">
       <c r="A14" s="3">
-        <v>1011</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>4</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>1</v>
-      </c>
-      <c r="X14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>-1</v>
-      </c>
       <c r="Z14" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <v>-1</v>
+        <v>480</v>
       </c>
       <c r="AB14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>-120</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="4">
-        <v>0</v>
-      </c>
+      <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="3">
         <v>1</v>
@@ -2782,24 +3235,1423 @@
       <c r="AI14" s="3">
         <v>0</v>
       </c>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="4"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:42">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="4">
+        <v>4</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="4"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:42">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="4"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:42">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="4">
+        <v>4</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="4"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:42">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="4"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:42">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4">
+        <v>105</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="4"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:42">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3">
+        <v>106</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:42">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:42">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:42">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3">
+        <v>107</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:42">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:42">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3">
+        <v>108</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:42">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:42">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3">
+        <v>109</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:42">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:42">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3">
+        <v>110</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="22.875" customWidth="1"/>
@@ -2813,265 +4665,265 @@
     <col min="27" max="27" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="15" spans="1:28">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" t="s">
+        <v>136</v>
+      </c>
+      <c r="S2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="105" spans="1:28">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>117</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="105" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:28">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -3088,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -3097,7 +4949,7 @@
         <v>-1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -3121,13 +4973,13 @@
         <v>-1</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="T4" s="3">
         <v>0</v>
@@ -3157,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:28">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
@@ -3174,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -3183,7 +5035,7 @@
         <v>-1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
@@ -3207,13 +5059,13 @@
         <v>-1</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -3243,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:28">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
@@ -3260,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="G6" s="4">
         <v>-1</v>
@@ -3293,13 +5145,13 @@
         <v>-1</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="T6" s="4">
         <v>1</v>
@@ -3329,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:28">
       <c r="A7" s="6">
         <v>1004</v>
       </c>
@@ -3346,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G7" s="4">
         <v>-1</v>
@@ -3361,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L7" s="4">
         <v>-1</v>
@@ -3382,10 +5234,10 @@
         <v>2</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -3415,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:28">
       <c r="A8" s="4">
         <v>1005</v>
       </c>
@@ -3432,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G8" s="4">
         <v>-1</v>
@@ -3447,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L8" s="4">
         <v>-1</v>
@@ -3468,10 +5320,10 @@
         <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -3501,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:28">
       <c r="A9" s="6">
         <v>1006</v>
       </c>
@@ -3518,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G9" s="4">
         <v>-1</v>
@@ -3533,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L9" s="4">
         <v>-1</v>
@@ -3554,10 +5406,10 @@
         <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
@@ -3587,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:28">
       <c r="A10" s="6">
         <v>1007</v>
       </c>
@@ -3604,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G10" s="4">
         <v>-1</v>
@@ -3618,32 +5470,32 @@
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="S10" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="T10" s="4">
         <v>0</v>
@@ -3673,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:28">
       <c r="A11" s="4">
         <v>1008</v>
       </c>
@@ -3690,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G11" s="4">
         <v>-1</v>
@@ -3704,8 +5556,8 @@
       <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>114</v>
+      <c r="K11" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L11" s="4">
         <v>-1</v>
@@ -3726,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
@@ -3759,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:28">
       <c r="A12" s="6">
         <v>1009</v>
       </c>
@@ -3776,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G12" s="4">
         <v>-1</v>
@@ -3790,8 +5642,8 @@
       <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>111</v>
+      <c r="K12" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L12" s="4">
         <v>-1</v>
@@ -3812,10 +5664,10 @@
         <v>2</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T12" s="4">
         <v>0</v>
@@ -3845,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:28">
       <c r="A13" s="6">
         <v>1010</v>
       </c>
@@ -3862,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G13" s="4">
         <v>-1</v>
@@ -3876,8 +5728,8 @@
       <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
+      <c r="K13" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L13" s="4">
         <v>-1</v>
@@ -3898,10 +5750,10 @@
         <v>3</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
@@ -3931,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:28">
       <c r="A14" s="4">
         <v>1011</v>
       </c>
@@ -3948,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G14" s="4">
         <v>-1</v>
@@ -3963,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="L14" s="4">
         <v>-1</v>
@@ -3984,10 +5836,10 @@
         <v>4</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
@@ -4017,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:28">
       <c r="A15" s="4">
         <v>1012</v>
       </c>
@@ -4034,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G15" s="4">
         <v>-1</v>
@@ -4049,31 +5901,31 @@
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="S15" s="4" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="T15" s="4">
         <v>0</v>
@@ -4103,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:28">
       <c r="A16" s="4">
         <v>1013</v>
       </c>
@@ -4120,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G16" s="4">
         <v>-1</v>
@@ -4135,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L16" s="4">
         <v>-1</v>
@@ -4156,10 +6008,10 @@
         <v>2</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T16" s="4">
         <v>0</v>
@@ -4189,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:28">
       <c r="A17" s="4">
         <v>1014</v>
       </c>
@@ -4206,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G17" s="4">
         <v>-1</v>
@@ -4221,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L17" s="4">
         <v>-1</v>
@@ -4242,10 +6094,10 @@
         <v>6</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T17" s="4">
         <v>0</v>
@@ -4275,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:28">
       <c r="A18" s="4">
         <v>1015</v>
       </c>
@@ -4292,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G18" s="4">
         <v>-1</v>
@@ -4307,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L18" s="4">
         <v>-1</v>
@@ -4328,10 +6180,10 @@
         <v>7</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T18" s="4">
         <v>0</v>
@@ -4361,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:28">
       <c r="A19" s="6">
         <v>1016</v>
       </c>
@@ -4378,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G19" s="4">
         <v>-1</v>
@@ -4392,32 +6244,32 @@
       <c r="J19" s="4">
         <v>0</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M19" s="4">
-        <v>-1</v>
-      </c>
-      <c r="N19" s="4">
-        <v>-1</v>
-      </c>
-      <c r="O19" s="4">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="S19" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="T19" s="4">
         <v>0</v>
@@ -4447,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:28">
       <c r="A20" s="4">
         <v>1017</v>
       </c>
@@ -4464,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G20" s="4">
         <v>-1</v>
@@ -4479,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L20" s="4">
         <v>-1</v>
@@ -4500,10 +6352,10 @@
         <v>3</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T20" s="4">
         <v>0</v>
@@ -4533,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:28">
       <c r="A21" s="6">
         <v>1018</v>
       </c>
@@ -4550,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G21" s="4">
         <v>-1</v>
@@ -4565,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L21" s="4">
         <v>-1</v>
@@ -4586,10 +6438,10 @@
         <v>2</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T21" s="4">
         <v>0</v>
@@ -4619,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:28">
       <c r="A22" s="6">
         <v>1019</v>
       </c>
@@ -4636,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G22" s="4">
         <v>-1</v>
@@ -4651,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L22" s="4">
         <v>-1</v>
@@ -4672,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T22" s="4">
         <v>0</v>
@@ -4705,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:28">
       <c r="A23" s="4">
         <v>1020</v>
       </c>
@@ -4722,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G23" s="4">
         <v>-1</v>
@@ -4736,8 +6588,8 @@
       <c r="J23" s="4">
         <v>0</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>110</v>
+      <c r="K23" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L23" s="4">
         <v>-1</v>
@@ -4755,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="T23" s="4">
         <v>0</v>
@@ -4791,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:28">
       <c r="A24" s="4">
         <v>1021</v>
       </c>
@@ -4808,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G24" s="4">
         <v>-1</v>
@@ -4823,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L24" s="4">
         <v>-1</v>
@@ -4844,10 +6696,10 @@
         <v>5</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T24" s="4">
         <v>0</v>
@@ -4877,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:28">
       <c r="A25" s="4">
         <v>1022</v>
       </c>
@@ -4894,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G25" s="4">
         <v>-1</v>
@@ -4909,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L25" s="4">
         <v>-1</v>
@@ -4930,10 +6782,10 @@
         <v>6</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T25" s="4">
         <v>0</v>
@@ -4963,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:28">
       <c r="A26" s="4">
         <v>1023</v>
       </c>
@@ -4980,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G26" s="4">
         <v>-1</v>
@@ -4995,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L26" s="4">
         <v>-1</v>
@@ -5016,10 +6868,10 @@
         <v>7</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T26" s="4">
         <v>0</v>
@@ -5049,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:28">
       <c r="A27" s="4">
         <v>1024</v>
       </c>
@@ -5066,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G27" s="4">
         <v>-1</v>
@@ -5080,8 +6932,8 @@
       <c r="J27" s="4">
         <v>0</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>110</v>
+      <c r="K27" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L27" s="4">
         <v>-1</v>
@@ -5099,13 +6951,13 @@
         <v>-1</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="T27" s="4">
         <v>0</v>
@@ -5135,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:28">
       <c r="A28" s="6">
         <v>1025</v>
       </c>
@@ -5152,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G28" s="4">
         <v>-1</v>
@@ -5166,8 +7018,8 @@
       <c r="J28" s="4">
         <v>1</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>106</v>
+      <c r="K28" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L28" s="4">
         <v>-1</v>
@@ -5188,10 +7040,10 @@
         <v>5</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T28" s="4">
         <v>0</v>
@@ -5221,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:28">
       <c r="A29" s="4">
         <v>1026</v>
       </c>
@@ -5238,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G29" s="4">
         <v>-1</v>
@@ -5252,8 +7104,8 @@
       <c r="J29" s="4">
         <v>0</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>111</v>
+      <c r="K29" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L29" s="4">
         <v>-1</v>
@@ -5274,10 +7126,10 @@
         <v>6</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T29" s="4">
         <v>0</v>
@@ -5307,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:28">
       <c r="A30" s="6">
         <v>1027</v>
       </c>
@@ -5324,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G30" s="4">
         <v>-1</v>
@@ -5338,8 +7190,8 @@
       <c r="J30" s="4">
         <v>0</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>110</v>
+      <c r="K30" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L30" s="4">
         <v>-1</v>
@@ -5360,10 +7212,10 @@
         <v>7</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T30" s="4">
         <v>0</v>
@@ -5393,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:28">
       <c r="A31" s="6">
         <v>1028</v>
       </c>
@@ -5410,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G31" s="4">
         <v>-1</v>
@@ -5425,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L31" s="4">
         <v>-1</v>
@@ -5446,10 +7298,10 @@
         <v>8</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T31" s="4">
         <v>0</v>
@@ -5479,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:28">
       <c r="A32" s="4">
         <v>1029</v>
       </c>
@@ -5496,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G32" s="4">
         <v>-1</v>
@@ -5511,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L32" s="4">
         <v>-1</v>
@@ -5529,13 +7381,13 @@
         <v>-1</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="T32" s="4">
         <v>0</v>
@@ -5565,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:28">
       <c r="A33" s="4">
         <v>1030</v>
       </c>
@@ -5582,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G33" s="4">
         <v>-1</v>
@@ -5596,8 +7448,8 @@
       <c r="J33" s="4">
         <v>1</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>106</v>
+      <c r="K33" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L33" s="4">
         <v>-1</v>
@@ -5618,10 +7470,10 @@
         <v>1</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T33" s="4">
         <v>0</v>
@@ -5651,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:28">
       <c r="A34" s="4">
         <v>1031</v>
       </c>
@@ -5668,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G34" s="4">
         <v>-1</v>
@@ -5682,8 +7534,8 @@
       <c r="J34" s="4">
         <v>0</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>111</v>
+      <c r="K34" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L34" s="4">
         <v>-1</v>
@@ -5704,10 +7556,10 @@
         <v>2</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T34" s="4">
         <v>0</v>
@@ -5737,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:28">
       <c r="A35" s="4">
         <v>1032</v>
       </c>
@@ -5754,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G35" s="4">
         <v>-1</v>
@@ -5768,8 +7620,8 @@
       <c r="J35" s="4">
         <v>0</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>110</v>
+      <c r="K35" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L35" s="4">
         <v>-1</v>
@@ -5790,10 +7642,10 @@
         <v>3</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T35" s="4">
         <v>0</v>
@@ -5823,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:28">
       <c r="A36" s="4">
         <v>1033</v>
       </c>
@@ -5840,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G36" s="4">
         <v>-1</v>
@@ -5855,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L36" s="4">
         <v>-1</v>
@@ -5876,10 +7728,10 @@
         <v>4</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T36" s="4">
         <v>0</v>
@@ -5909,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:28">
       <c r="A37" s="6">
         <v>1034</v>
       </c>
@@ -5926,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G37" s="4">
         <v>-1</v>
@@ -5941,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L37" s="4">
         <v>-1</v>
@@ -5959,13 +7811,13 @@
         <v>-1</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="T37" s="4">
         <v>0</v>
@@ -5995,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:28">
       <c r="A38" s="4">
         <v>1035</v>
       </c>
@@ -6012,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G38" s="4">
         <v>-1</v>
@@ -6026,8 +7878,8 @@
       <c r="J38" s="4">
         <v>1</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>106</v>
+      <c r="K38" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L38" s="4">
         <v>-1</v>
@@ -6048,10 +7900,10 @@
         <v>2</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T38" s="4">
         <v>0</v>
@@ -6081,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:28">
       <c r="A39" s="6">
         <v>1036</v>
       </c>
@@ -6098,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G39" s="4">
         <v>-1</v>
@@ -6112,8 +7964,8 @@
       <c r="J39" s="4">
         <v>0</v>
       </c>
-      <c r="K39" s="7" t="s">
-        <v>111</v>
+      <c r="K39" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L39" s="4">
         <v>-1</v>
@@ -6134,10 +7986,10 @@
         <v>1</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T39" s="4">
         <v>0</v>
@@ -6167,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:28">
       <c r="A40" s="6">
         <v>1037</v>
       </c>
@@ -6184,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G40" s="4">
         <v>-1</v>
@@ -6198,8 +8050,8 @@
       <c r="J40" s="4">
         <v>0</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>110</v>
+      <c r="K40" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L40" s="4">
         <v>-1</v>
@@ -6220,10 +8072,10 @@
         <v>5</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T40" s="4">
         <v>0</v>
@@ -6253,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:28">
       <c r="A41" s="4">
         <v>1038</v>
       </c>
@@ -6270,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G41" s="4">
         <v>-1</v>
@@ -6285,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L41" s="4">
         <v>-1</v>
@@ -6306,10 +8158,10 @@
         <v>7</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T41" s="4">
         <v>0</v>
@@ -6339,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="16.5" spans="1:28">
       <c r="A42" s="4">
         <v>1039</v>
       </c>
@@ -6356,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G42" s="4">
         <v>-1</v>
@@ -6371,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L42" s="4">
         <v>-1</v>
@@ -6389,13 +8241,13 @@
         <v>-1</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="T42" s="4">
         <v>0</v>
@@ -6425,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:28">
       <c r="A43" s="4">
         <v>1040</v>
       </c>
@@ -6442,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G43" s="4">
         <v>-1</v>
@@ -6456,8 +8308,8 @@
       <c r="J43" s="4">
         <v>1</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>106</v>
+      <c r="K43" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L43" s="4">
         <v>-1</v>
@@ -6478,10 +8330,10 @@
         <v>2</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T43" s="4">
         <v>0</v>
@@ -6511,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:28">
       <c r="A44" s="4">
         <v>1041</v>
       </c>
@@ -6528,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G44" s="4">
         <v>-1</v>
@@ -6542,8 +8394,8 @@
       <c r="J44" s="4">
         <v>0</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>111</v>
+      <c r="K44" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L44" s="4">
         <v>-1</v>
@@ -6564,10 +8416,10 @@
         <v>10</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T44" s="4">
         <v>0</v>
@@ -6597,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:28">
       <c r="A45" s="4">
         <v>1042</v>
       </c>
@@ -6614,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G45" s="4">
         <v>-1</v>
@@ -6628,8 +8480,8 @@
       <c r="J45" s="4">
         <v>0</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>110</v>
+      <c r="K45" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L45" s="4">
         <v>-1</v>
@@ -6650,10 +8502,10 @@
         <v>1</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T45" s="4">
         <v>0</v>
@@ -6683,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:28">
       <c r="A46" s="6">
         <v>1043</v>
       </c>
@@ -6700,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G46" s="4">
         <v>-1</v>
@@ -6715,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L46" s="4">
         <v>-1</v>
@@ -6736,10 +8588,10 @@
         <v>9</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T46" s="4">
         <v>0</v>
@@ -6769,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="16.5" spans="1:28">
       <c r="A47" s="4">
         <v>1044</v>
       </c>
@@ -6786,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G47" s="4">
         <v>-1</v>
@@ -6801,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L47" s="4">
         <v>-1</v>
@@ -6819,13 +8671,13 @@
         <v>-1</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="T47" s="4">
         <v>0</v>
@@ -6855,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="16.5" spans="1:28">
       <c r="A48" s="6">
         <v>1045</v>
       </c>
@@ -6872,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G48" s="4">
         <v>-1</v>
@@ -6886,8 +8738,8 @@
       <c r="J48" s="4">
         <v>1</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>106</v>
+      <c r="K48" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L48" s="4">
         <v>-1</v>
@@ -6908,10 +8760,10 @@
         <v>8</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T48" s="4">
         <v>0</v>
@@ -6941,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" ht="16.5" spans="1:28">
       <c r="A49" s="6">
         <v>1046</v>
       </c>
@@ -6958,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G49" s="4">
         <v>-1</v>
@@ -6972,8 +8824,8 @@
       <c r="J49" s="4">
         <v>0</v>
       </c>
-      <c r="K49" s="7" t="s">
-        <v>111</v>
+      <c r="K49" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L49" s="4">
         <v>-1</v>
@@ -6994,10 +8846,10 @@
         <v>5</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T49" s="4">
         <v>0</v>
@@ -7027,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" ht="16.5" spans="1:28">
       <c r="A50" s="4">
         <v>1047</v>
       </c>
@@ -7044,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G50" s="4">
         <v>-1</v>
@@ -7058,8 +8910,8 @@
       <c r="J50" s="4">
         <v>0</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>110</v>
+      <c r="K50" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L50" s="4">
         <v>-1</v>
@@ -7080,10 +8932,10 @@
         <v>4</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T50" s="4">
         <v>0</v>
@@ -7113,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" ht="16.5" spans="1:28">
       <c r="A51" s="4">
         <v>1048</v>
       </c>
@@ -7130,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G51" s="4">
         <v>-1</v>
@@ -7145,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L51" s="4">
         <v>-1</v>
@@ -7166,10 +9018,10 @@
         <v>3</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T51" s="4">
         <v>0</v>
@@ -7199,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" ht="16.5" spans="1:28">
       <c r="A52" s="4">
         <v>1049</v>
       </c>
@@ -7216,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G52" s="4">
         <v>-1</v>
@@ -7231,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L52" s="4">
         <v>-1</v>
@@ -7249,13 +9101,13 @@
         <v>-1</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="T52" s="4">
         <v>0</v>
@@ -7285,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" ht="16.5" spans="1:28">
       <c r="A53" s="4">
         <v>1050</v>
       </c>
@@ -7302,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G53" s="4">
         <v>-1</v>
@@ -7316,8 +9168,8 @@
       <c r="J53" s="4">
         <v>1</v>
       </c>
-      <c r="K53" s="7" t="s">
-        <v>106</v>
+      <c r="K53" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="L53" s="4">
         <v>-1</v>
@@ -7338,10 +9190,10 @@
         <v>12</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T53" s="4">
         <v>0</v>
@@ -7371,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" ht="16.5" spans="1:28">
       <c r="A54" s="4">
         <v>1051</v>
       </c>
@@ -7388,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G54" s="4">
         <v>-1</v>
@@ -7402,8 +9254,8 @@
       <c r="J54" s="4">
         <v>0</v>
       </c>
-      <c r="K54" s="7" t="s">
-        <v>111</v>
+      <c r="K54" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="L54" s="4">
         <v>-1</v>
@@ -7424,10 +9276,10 @@
         <v>9</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="T54" s="4">
         <v>0</v>
@@ -7457,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" ht="16.5" spans="1:28">
       <c r="A55" s="6">
         <v>1052</v>
       </c>
@@ -7474,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G55" s="4">
         <v>-1</v>
@@ -7489,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L55" s="4">
         <v>-1</v>
@@ -7507,13 +9359,13 @@
         <v>-1</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="T55" s="4">
         <v>0</v>
@@ -7543,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" ht="16.5" spans="1:28">
       <c r="A56" s="4"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -7573,7 +9425,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" ht="16.5" spans="1:28">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -7603,7 +9455,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" ht="16.5" spans="1:28">
       <c r="A58" s="4"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -7633,7 +9485,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" ht="16.5" spans="1:28">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -7644,7 +9496,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="7"/>
+      <c r="K59" s="5"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -7663,7 +9515,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" ht="16.5" spans="1:28">
       <c r="A60" s="4"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -7674,7 +9526,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="7"/>
+      <c r="K60" s="5"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -7693,7 +9545,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" ht="16.5" spans="1:28">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -7704,7 +9556,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="7"/>
+      <c r="K61" s="5"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -7723,7 +9575,7 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" ht="16.5" spans="1:28">
       <c r="A62" s="4"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -7734,7 +9586,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="7"/>
+      <c r="K62" s="5"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -7753,7 +9605,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" ht="16.5" spans="1:28">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -7784,77 +9636,78 @@
       <c r="AB63" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" ht="75" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:5">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -7871,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="20.1" customHeight="1" spans="1:5">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
@@ -7888,7 +9741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="20.1" customHeight="1" spans="1:5">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
@@ -7905,7 +9758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
@@ -7922,7 +9775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="4">
         <v>1005</v>
       </c>
@@ -7939,7 +9792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="4">
         <v>1006</v>
       </c>
@@ -7952,11 +9805,11 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="4">
         <v>1007</v>
       </c>
@@ -7969,11 +9822,11 @@
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="4">
         <v>1008</v>
       </c>
@@ -7986,11 +9839,11 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="4">
         <v>1009</v>
       </c>
@@ -8003,11 +9856,11 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="4">
         <v>1010</v>
       </c>
@@ -8020,11 +9873,11 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="4">
         <v>1011</v>
       </c>
@@ -8037,30 +9890,30 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="5">
         <v>1012</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>5</v>
       </c>
       <c r="C15" s="4">
         <v>10101</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>